--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_17.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-481912.0243500725</v>
+        <v>-482621.1941243802</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058543</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -780,28 +780,28 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3.199249640013477</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>2.817899082923868</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="W3" t="n">
-        <v>3.199249640013477</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3.199249640013477</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="R6" t="n">
-        <v>2.817899082923868</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
         <v>3.097658594934726</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.2377854165523</v>
+        <v>188.2377854165522</v>
       </c>
       <c r="H11" t="n">
         <v>169.2219024907745</v>
       </c>
       <c r="I11" t="n">
-        <v>46.10353936269495</v>
+        <v>63.24867564227711</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,25 +1415,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17.15336415818052</v>
+        <v>17.15336415818051</v>
       </c>
       <c r="S11" t="n">
-        <v>49.73451669048101</v>
+        <v>49.73451669048099</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6584314502356</v>
+        <v>44.65843145023558</v>
       </c>
       <c r="U11" t="n">
-        <v>72.33726223721348</v>
+        <v>16.2891952720774</v>
       </c>
       <c r="V11" t="n">
-        <v>143.0663958384235</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>181.9693265239776</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.704763753637451</v>
+        <v>9.704763753637422</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>71.98610805935388</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I12" t="n">
         <v>107.3883981334483</v>
       </c>
       <c r="J12" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.79088422295318</v>
+        <v>94.79931995506483</v>
       </c>
       <c r="T12" t="n">
-        <v>37.16046115686558</v>
+        <v>37.16046115686555</v>
       </c>
       <c r="U12" t="n">
-        <v>59.41472947352854</v>
+        <v>59.41472947352851</v>
       </c>
       <c r="V12" t="n">
-        <v>62.83553314467378</v>
+        <v>62.83553314467375</v>
       </c>
       <c r="W12" t="n">
-        <v>88.89119580628312</v>
+        <v>88.89119580628309</v>
       </c>
       <c r="X12" t="n">
-        <v>39.49952666874213</v>
+        <v>39.49952666874211</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.57089836329715</v>
+        <v>45.57089836329712</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.64393163552156</v>
+        <v>25.64393163552154</v>
       </c>
       <c r="S13" t="n">
-        <v>57.63526026840614</v>
+        <v>57.63526026840611</v>
       </c>
       <c r="T13" t="n">
-        <v>45.95077043248364</v>
+        <v>45.95077043248361</v>
       </c>
       <c r="U13" t="n">
         <v>110.8432023861719</v>
       </c>
       <c r="V13" t="n">
-        <v>67.29562741372143</v>
+        <v>67.29562741372141</v>
       </c>
       <c r="W13" t="n">
-        <v>112.4973193186069</v>
+        <v>112.4973193186068</v>
       </c>
       <c r="X13" t="n">
-        <v>44.10606763751406</v>
+        <v>44.10606763751403</v>
       </c>
       <c r="Y13" t="n">
-        <v>39.32788504343995</v>
+        <v>39.32788504343992</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.3921096104503</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.9587718714988</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>92.44020674001462</v>
       </c>
       <c r="G14" t="n">
-        <v>92.66784893350021</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>63.24867564227715</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>17.15336415818049</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.65843145023558</v>
+        <v>44.6584314502356</v>
       </c>
       <c r="U14" t="n">
-        <v>72.33726223721345</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>143.0663958384235</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.9693265239777</v>
       </c>
       <c r="Y14" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>143.2880784957685</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.704763753637451</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1701,13 +1701,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>64.8439044232591</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.54373878807819</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.79088422295316</v>
+        <v>13.79088422295319</v>
       </c>
       <c r="T15" t="n">
-        <v>37.16046115686555</v>
+        <v>37.16046115686558</v>
       </c>
       <c r="U15" t="n">
-        <v>59.41472947352851</v>
+        <v>59.41472947352854</v>
       </c>
       <c r="V15" t="n">
-        <v>62.83553314467375</v>
+        <v>62.83553314467378</v>
       </c>
       <c r="W15" t="n">
-        <v>88.89119580628309</v>
+        <v>88.89119580628312</v>
       </c>
       <c r="X15" t="n">
-        <v>39.49952666874211</v>
+        <v>39.49952666874213</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.57089836329712</v>
+        <v>188.2377854165523</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.64393163552154</v>
+        <v>25.64393163552157</v>
       </c>
       <c r="S16" t="n">
-        <v>57.63526026840611</v>
+        <v>57.63526026840614</v>
       </c>
       <c r="T16" t="n">
-        <v>45.95077043248361</v>
+        <v>45.95077043248364</v>
       </c>
       <c r="U16" t="n">
         <v>110.8432023861719</v>
       </c>
       <c r="V16" t="n">
-        <v>67.29562741372141</v>
+        <v>67.29562741372143</v>
       </c>
       <c r="W16" t="n">
-        <v>112.4973193186068</v>
+        <v>112.4973193186069</v>
       </c>
       <c r="X16" t="n">
-        <v>44.10606763751403</v>
+        <v>44.10606763751406</v>
       </c>
       <c r="Y16" t="n">
-        <v>39.32788504343992</v>
+        <v>39.32788504343995</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>121.2986921063726</v>
       </c>
       <c r="H17" t="n">
-        <v>49.49445296407464</v>
+        <v>49.4944529640747</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1938,13 +1938,13 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7425338994548</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.962098501482266</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1980,13 +1980,13 @@
         <v>188.2377854165523</v>
       </c>
       <c r="V18" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>187.1433913884428</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>187.238645142805</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2081,7 +2081,7 @@
         <v>76.54640308040496</v>
       </c>
       <c r="C20" t="n">
-        <v>52.66466008375045</v>
+        <v>52.66466008375062</v>
       </c>
       <c r="D20" t="n">
         <v>40.23132234479891</v>
@@ -2096,7 +2096,7 @@
         <v>121.2986921063726</v>
       </c>
       <c r="H20" t="n">
-        <v>49.49445296407464</v>
+        <v>49.4944529640747</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2178,10 +2178,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,16 +2202,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R21" t="n">
         <v>134.7648615722126</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>52.37852981623008</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>51.97038591684368</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.2986921063726</v>
       </c>
       <c r="H23" t="n">
-        <v>49.49445296407464</v>
+        <v>49.49445296407467</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7453302346265</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>28.54180217915929</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.962098501482266</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>188.2377854165523</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>188.2377854165523</v>
       </c>
       <c r="Y24" t="n">
-        <v>175.2479564701696</v>
+        <v>188.2377854165523</v>
       </c>
     </row>
     <row r="25">
@@ -2573,7 +2573,7 @@
         <v>133.4787898363527</v>
       </c>
       <c r="I26" t="n">
-        <v>27.50556298785524</v>
+        <v>27.50556298785523</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>13.9914040360591</v>
+        <v>13.99140403605909</v>
       </c>
       <c r="T26" t="n">
-        <v>8.915318795813697</v>
+        <v>8.915318795813704</v>
       </c>
       <c r="U26" t="n">
         <v>36.59414958279157</v>
@@ -2634,13 +2634,13 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
@@ -2682,22 +2682,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>43.84216035324295</v>
       </c>
       <c r="T27" t="n">
-        <v>1.417348502443675</v>
+        <v>1.417348502443676</v>
       </c>
       <c r="U27" t="n">
         <v>23.67161681910663</v>
       </c>
       <c r="V27" t="n">
-        <v>138.70185832963</v>
+        <v>27.09242049025187</v>
       </c>
       <c r="W27" t="n">
-        <v>53.14808315186121</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>3.756414014320228</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
         <v>9.82778570887524</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.89214761398423</v>
+        <v>21.89214761398424</v>
       </c>
       <c r="T28" t="n">
         <v>10.20765777806173</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>160.530739952683</v>
+        <v>160.5307399526829</v>
       </c>
       <c r="C29" t="n">
-        <v>136.6489969560285</v>
+        <v>136.6489969560284</v>
       </c>
       <c r="D29" t="n">
-        <v>124.215659217077</v>
+        <v>124.2156592170769</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9224116364858</v>
+        <v>157.9224116364857</v>
       </c>
       <c r="F29" t="n">
-        <v>189.6427492148632</v>
+        <v>189.6427492148631</v>
       </c>
       <c r="G29" t="n">
-        <v>205.2830289786507</v>
+        <v>205.2830289786506</v>
       </c>
       <c r="H29" t="n">
         <v>133.4787898363527</v>
       </c>
       <c r="I29" t="n">
-        <v>27.50556298785529</v>
+        <v>27.50556298785521</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>13.99140403605916</v>
+        <v>13.99140403605908</v>
       </c>
       <c r="T29" t="n">
-        <v>8.915318795813754</v>
+        <v>8.91531879581367</v>
       </c>
       <c r="U29" t="n">
-        <v>36.59414958279163</v>
+        <v>36.59414958279154</v>
       </c>
       <c r="V29" t="n">
-        <v>107.3232831840017</v>
+        <v>107.3232831840016</v>
       </c>
       <c r="W29" t="n">
-        <v>124.3399634006166</v>
+        <v>124.3399634006165</v>
       </c>
       <c r="X29" t="n">
-        <v>146.2262138695558</v>
+        <v>146.2262138695557</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.7290669932996</v>
+        <v>168.7290669932995</v>
       </c>
     </row>
     <row r="30">
@@ -2871,16 +2871,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.962098501482266</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.417348502443732</v>
+        <v>1.417348502443647</v>
       </c>
       <c r="U30" t="n">
-        <v>23.67161681910669</v>
+        <v>23.6716168191066</v>
       </c>
       <c r="V30" t="n">
-        <v>63.97248234201265</v>
+        <v>27.09242049025184</v>
       </c>
       <c r="W30" t="n">
-        <v>266.7045835770116</v>
+        <v>53.14808315186119</v>
       </c>
       <c r="X30" t="n">
-        <v>3.756414014320285</v>
+        <v>115.0169758970483</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.827785708875211</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.89214761398429</v>
+        <v>21.89214761398421</v>
       </c>
       <c r="T31" t="n">
-        <v>10.20765777806179</v>
+        <v>10.2076577780617</v>
       </c>
       <c r="U31" t="n">
-        <v>75.10008973175005</v>
+        <v>75.10008973174996</v>
       </c>
       <c r="V31" t="n">
-        <v>31.55251475929958</v>
+        <v>31.5525147592995</v>
       </c>
       <c r="W31" t="n">
-        <v>76.75420666418501</v>
+        <v>76.75420666418492</v>
       </c>
       <c r="X31" t="n">
-        <v>8.362954983092209</v>
+        <v>8.362954983092123</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.584772389018099</v>
+        <v>3.584772389018013</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>160.4485653603267</v>
+        <v>160.4485653603266</v>
       </c>
       <c r="C32" t="n">
         <v>136.5668223636721</v>
@@ -3035,10 +3035,10 @@
         <v>124.1334846247206</v>
       </c>
       <c r="E32" t="n">
-        <v>157.8402370441295</v>
+        <v>157.8402370441294</v>
       </c>
       <c r="F32" t="n">
-        <v>189.5605746225068</v>
+        <v>189.5605746225067</v>
       </c>
       <c r="G32" t="n">
         <v>205.2008543862943</v>
@@ -3047,7 +3047,7 @@
         <v>133.3966152439963</v>
       </c>
       <c r="I32" t="n">
-        <v>27.42338839549893</v>
+        <v>27.42338839549888</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.9092294437028</v>
+        <v>13.90922944370274</v>
       </c>
       <c r="T32" t="n">
-        <v>8.833144203457408</v>
+        <v>8.833144203457351</v>
       </c>
       <c r="U32" t="n">
-        <v>36.51197499043528</v>
+        <v>36.51197499043522</v>
       </c>
       <c r="V32" t="n">
         <v>107.2411085916453</v>
@@ -3092,7 +3092,7 @@
         <v>124.2577888082602</v>
       </c>
       <c r="X32" t="n">
-        <v>146.1440392771995</v>
+        <v>146.1440392771994</v>
       </c>
       <c r="Y32" t="n">
         <v>168.6468924009432</v>
@@ -3105,16 +3105,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>111.753609436866</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>1.33517391008738</v>
+        <v>1.335173910087323</v>
       </c>
       <c r="U33" t="n">
-        <v>23.58944222675034</v>
+        <v>23.58944222675028</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.01024589789552</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>53.06590855950486</v>
       </c>
       <c r="X33" t="n">
-        <v>206.6685372645606</v>
+        <v>3.674239421963875</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.745611116518944</v>
+        <v>9.745611116518887</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.80997302162794</v>
+        <v>21.80997302162788</v>
       </c>
       <c r="T34" t="n">
-        <v>10.12548318570544</v>
+        <v>10.12548318570538</v>
       </c>
       <c r="U34" t="n">
-        <v>75.01791513939369</v>
+        <v>75.01791513939364</v>
       </c>
       <c r="V34" t="n">
-        <v>31.47034016694323</v>
+        <v>31.47034016694317</v>
       </c>
       <c r="W34" t="n">
-        <v>76.67203207182865</v>
+        <v>76.6720320718286</v>
       </c>
       <c r="X34" t="n">
-        <v>8.280780390735856</v>
+        <v>8.280780390735799</v>
       </c>
       <c r="Y34" t="n">
-        <v>3.502597796661746</v>
+        <v>3.502597796661689</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>147.9111095023714</v>
       </c>
       <c r="H35" t="n">
-        <v>76.1068703600734</v>
+        <v>76.10687036007346</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3342,19 +3342,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.80705266158029</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>52.54373878807819</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3399,16 +3399,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>27.0606261414037</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>263.6698075140544</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>147.9111095023714</v>
       </c>
       <c r="H38" t="n">
-        <v>76.1068703600734</v>
+        <v>76.10687036007343</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3579,16 +3579,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3636,16 +3636,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.228117244257</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>163.4268327172233</v>
       </c>
       <c r="X39" t="n">
-        <v>53.42373617192111</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3743,13 +3743,13 @@
         <v>109.1434339681732</v>
       </c>
       <c r="D41" t="n">
-        <v>96.71009622922168</v>
+        <v>96.71009622922165</v>
       </c>
       <c r="E41" t="n">
         <v>130.4168486486305</v>
       </c>
       <c r="F41" t="n">
-        <v>162.1371862270079</v>
+        <v>162.1371862270078</v>
       </c>
       <c r="G41" t="n">
         <v>177.7774659907954</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.088586594936345</v>
+        <v>9.088586594936316</v>
       </c>
       <c r="V41" t="n">
-        <v>79.81772019614641</v>
+        <v>79.81772019614638</v>
       </c>
       <c r="W41" t="n">
-        <v>96.83440041276128</v>
+        <v>96.83440041276125</v>
       </c>
       <c r="X41" t="n">
         <v>118.7206508817005</v>
@@ -3825,7 +3825,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>41.70362735742641</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>28.77909846358687</v>
+        <v>25.64252016400596</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.59452674389475</v>
+        <v>47.59452674389473</v>
       </c>
       <c r="V43" t="n">
-        <v>4.046951771444299</v>
+        <v>4.04695177144427</v>
       </c>
       <c r="W43" t="n">
-        <v>49.24864367632972</v>
+        <v>49.24864367632969</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,13 +3980,13 @@
         <v>109.1434339681732</v>
       </c>
       <c r="D44" t="n">
-        <v>96.71009622922168</v>
+        <v>96.71009622922165</v>
       </c>
       <c r="E44" t="n">
         <v>130.4168486486305</v>
       </c>
       <c r="F44" t="n">
-        <v>162.1371862270079</v>
+        <v>162.1371862270078</v>
       </c>
       <c r="G44" t="n">
         <v>177.7774659907954</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.08858659493634</v>
+        <v>9.088586594936316</v>
       </c>
       <c r="V44" t="n">
-        <v>79.81772019614641</v>
+        <v>79.81772019614638</v>
       </c>
       <c r="W44" t="n">
-        <v>96.83440041276128</v>
+        <v>96.83440041276125</v>
       </c>
       <c r="X44" t="n">
         <v>118.7206508817005</v>
@@ -4053,16 +4053,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7648615722126</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4116,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>173.2302068646223</v>
+        <v>25.64252016400596</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>27.78121600791489</v>
       </c>
     </row>
     <row r="46">
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.59452674389475</v>
+        <v>47.59452674389473</v>
       </c>
       <c r="V46" t="n">
-        <v>4.046951771444299</v>
+        <v>4.04695177144427</v>
       </c>
       <c r="W46" t="n">
-        <v>49.24864367632972</v>
+        <v>49.24864367632969</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>3.42319711481442</v>
       </c>
       <c r="N3" t="n">
-        <v>6.590454258427762</v>
+        <v>6.462484272827225</v>
       </c>
       <c r="O3" t="n">
         <v>9.629741416440567</v>
@@ -4428,25 +4428,25 @@
         <v>12.79699856005391</v>
       </c>
       <c r="Q3" t="n">
-        <v>9.950635850029798</v>
+        <v>9.565433267111001</v>
       </c>
       <c r="R3" t="n">
-        <v>9.950635850029798</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S3" t="n">
-        <v>9.950635850029798</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="T3" t="n">
-        <v>9.950635850029798</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="U3" t="n">
-        <v>9.950635850029798</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="V3" t="n">
-        <v>6.719070557086891</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="W3" t="n">
-        <v>3.487505264143985</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="X3" t="n">
         <v>0.2559399712010781</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="K4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="L4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="M4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="N4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="O4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="P4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="R4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="S4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="T4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="U4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="V4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="W4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="X4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Y4" t="n">
-        <v>12.79699856005391</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="C5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="D5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="E5" t="n">
         <v>6.719070557086891</v>
@@ -4601,16 +4601,16 @@
         <v>6.590454258427762</v>
       </c>
       <c r="V5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="X5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="C6" t="n">
-        <v>6.719070557086891</v>
+        <v>3.487505264143985</v>
       </c>
       <c r="D6" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E6" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F6" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G6" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H6" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I6" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="J6" t="n">
         <v>0.2559399712010781</v>
@@ -4650,16 +4650,16 @@
         <v>0.2559399712010781</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2559399712010781</v>
+        <v>3.42319711481442</v>
       </c>
       <c r="M6" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="N6" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="O6" t="n">
-        <v>9.757711402041103</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P6" t="n">
         <v>12.79699856005391</v>
@@ -4668,28 +4668,28 @@
         <v>9.565433267111001</v>
       </c>
       <c r="R6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="S6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="T6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="U6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="W6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="X6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.719070557086891</v>
+        <v>6.333867974168094</v>
       </c>
     </row>
     <row r="7">
@@ -4866,7 +4866,7 @@
         <v>3.410297630181626</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="F9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,13 +4887,13 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>3.622375514058549</v>
+        <v>6.937899146382215</v>
       </c>
       <c r="M9" t="n">
-        <v>3.622375514058549</v>
+        <v>10.41959988319577</v>
       </c>
       <c r="N9" t="n">
-        <v>7.104076250872104</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="O9" t="n">
         <v>10.58577698768566</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.6986463383967</v>
+        <v>440.016965812722</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6986463383967</v>
+        <v>440.016965812722</v>
       </c>
       <c r="D11" t="n">
-        <v>422.6986463383967</v>
+        <v>440.016965812722</v>
       </c>
       <c r="E11" t="n">
-        <v>422.6986463383967</v>
+        <v>440.016965812722</v>
       </c>
       <c r="F11" t="n">
-        <v>422.6986463383967</v>
+        <v>440.016965812722</v>
       </c>
       <c r="G11" t="n">
-        <v>232.55946914996</v>
+        <v>249.8777886242854</v>
       </c>
       <c r="H11" t="n">
-        <v>61.62825451281404</v>
+        <v>78.94657398713946</v>
       </c>
       <c r="I11" t="n">
         <v>15.05902283332418</v>
@@ -5042,13 +5042,13 @@
         <v>114.9664989666077</v>
       </c>
       <c r="K11" t="n">
-        <v>116.3957131245021</v>
+        <v>114.9664989666077</v>
       </c>
       <c r="L11" t="n">
-        <v>162.9046395839696</v>
+        <v>161.4754254260753</v>
       </c>
       <c r="M11" t="n">
-        <v>243.5307412653831</v>
+        <v>242.1015271074887</v>
       </c>
       <c r="N11" t="n">
         <v>318.6190215470015</v>
@@ -5069,22 +5069,22 @@
         <v>685.3876256574601</v>
       </c>
       <c r="T11" t="n">
-        <v>640.2780989400502</v>
+        <v>640.2780989400503</v>
       </c>
       <c r="U11" t="n">
-        <v>567.2101572862992</v>
+        <v>623.8243663419923</v>
       </c>
       <c r="V11" t="n">
-        <v>422.6986463383967</v>
+        <v>623.8243663419923</v>
       </c>
       <c r="W11" t="n">
-        <v>422.6986463383967</v>
+        <v>623.8243663419923</v>
       </c>
       <c r="X11" t="n">
-        <v>422.6986463383967</v>
+        <v>440.016965812722</v>
       </c>
       <c r="Y11" t="n">
-        <v>422.6986463383967</v>
+        <v>440.016965812722</v>
       </c>
     </row>
     <row r="12">
@@ -5094,40 +5094,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>259.1226680197058</v>
+        <v>313.4220880602118</v>
       </c>
       <c r="C12" t="n">
-        <v>249.319876349365</v>
+        <v>303.619296389871</v>
       </c>
       <c r="D12" t="n">
-        <v>249.319876349365</v>
+        <v>303.619296389871</v>
       </c>
       <c r="E12" t="n">
-        <v>249.319876349365</v>
+        <v>303.619296389871</v>
       </c>
       <c r="F12" t="n">
-        <v>176.6066358853711</v>
+        <v>303.619296389871</v>
       </c>
       <c r="G12" t="n">
-        <v>176.6066358853711</v>
+        <v>303.619296389871</v>
       </c>
       <c r="H12" t="n">
-        <v>176.6066358853711</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="I12" t="n">
-        <v>68.13350645764558</v>
+        <v>68.13350645764559</v>
       </c>
       <c r="J12" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="K12" t="n">
-        <v>52.90632646829523</v>
+        <v>52.90632646829522</v>
       </c>
       <c r="L12" t="n">
-        <v>170.0832391874857</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M12" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N12" t="n">
         <v>537.9332412327074</v>
@@ -5139,31 +5139,31 @@
         <v>752.9511416662091</v>
       </c>
       <c r="Q12" t="n">
-        <v>745.9187189374392</v>
+        <v>745.9187189374391</v>
       </c>
       <c r="R12" t="n">
-        <v>609.7925961372245</v>
+        <v>745.9187189374391</v>
       </c>
       <c r="S12" t="n">
-        <v>595.8624100534333</v>
+        <v>650.1618300939392</v>
       </c>
       <c r="T12" t="n">
-        <v>558.3265907030641</v>
+        <v>612.62601074357</v>
       </c>
       <c r="U12" t="n">
-        <v>498.3117124469746</v>
+        <v>552.6111324874805</v>
       </c>
       <c r="V12" t="n">
-        <v>434.8414769473042</v>
+        <v>489.1408969878101</v>
       </c>
       <c r="W12" t="n">
-        <v>345.0523902742909</v>
+        <v>399.3518103147969</v>
       </c>
       <c r="X12" t="n">
-        <v>305.1538784876827</v>
+        <v>359.4532985281887</v>
       </c>
       <c r="Y12" t="n">
-        <v>259.1226680197058</v>
+        <v>313.4220880602118</v>
       </c>
     </row>
     <row r="13">
@@ -5197,49 +5197,49 @@
         <v>15.05902283332418</v>
       </c>
       <c r="J13" t="n">
-        <v>72.01447778216692</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="K13" t="n">
-        <v>181.6200670958933</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="L13" t="n">
-        <v>181.6200670958933</v>
+        <v>94.81008621815053</v>
       </c>
       <c r="M13" t="n">
-        <v>332.5962002787418</v>
+        <v>245.786219400999</v>
       </c>
       <c r="N13" t="n">
-        <v>332.5962002787418</v>
+        <v>405.3743387240096</v>
       </c>
       <c r="O13" t="n">
-        <v>471.4422169962182</v>
+        <v>405.3743387240096</v>
       </c>
       <c r="P13" t="n">
-        <v>473.4029283408812</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="Q13" t="n">
-        <v>523.4429260008652</v>
+        <v>523.4429260008649</v>
       </c>
       <c r="R13" t="n">
-        <v>497.5399647528636</v>
+        <v>497.5399647528633</v>
       </c>
       <c r="S13" t="n">
-        <v>439.3225301383119</v>
+        <v>439.3225301383117</v>
       </c>
       <c r="T13" t="n">
-        <v>392.9076105095406</v>
+        <v>392.9076105095404</v>
       </c>
       <c r="U13" t="n">
-        <v>280.9447798164376</v>
+        <v>280.9447798164375</v>
       </c>
       <c r="V13" t="n">
-        <v>212.9693985904564</v>
+        <v>212.9693985904563</v>
       </c>
       <c r="W13" t="n">
-        <v>99.33574271307572</v>
+        <v>99.33574271307566</v>
       </c>
       <c r="X13" t="n">
-        <v>54.78415924083929</v>
+        <v>54.78415924083926</v>
       </c>
       <c r="Y13" t="n">
         <v>15.05902283332418</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>282.7963546959007</v>
+        <v>524.034214419529</v>
       </c>
       <c r="C14" t="n">
-        <v>108.6629106449406</v>
+        <v>524.034214419529</v>
       </c>
       <c r="D14" t="n">
-        <v>108.6629106449406</v>
+        <v>362.4596973776111</v>
       </c>
       <c r="E14" t="n">
-        <v>108.6629106449406</v>
+        <v>172.3205201891745</v>
       </c>
       <c r="F14" t="n">
-        <v>108.6629106449406</v>
+        <v>78.94657398713949</v>
       </c>
       <c r="G14" t="n">
-        <v>15.05902283332418</v>
+        <v>78.94657398713949</v>
       </c>
       <c r="H14" t="n">
-        <v>15.05902283332418</v>
+        <v>78.94657398713949</v>
       </c>
       <c r="I14" t="n">
         <v>15.05902283332418</v>
@@ -5279,49 +5279,49 @@
         <v>114.9664989666077</v>
       </c>
       <c r="K14" t="n">
-        <v>116.3957131245021</v>
+        <v>284.1710136775583</v>
       </c>
       <c r="L14" t="n">
-        <v>162.9046395839696</v>
+        <v>330.6799401370258</v>
       </c>
       <c r="M14" t="n">
-        <v>243.5307412653831</v>
+        <v>411.3060418184392</v>
       </c>
       <c r="N14" t="n">
-        <v>318.6190215470015</v>
+        <v>597.661449380826</v>
       </c>
       <c r="O14" t="n">
-        <v>504.9744291093882</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="P14" t="n">
-        <v>665.8755230208915</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="Q14" t="n">
         <v>752.9511416662091</v>
       </c>
       <c r="R14" t="n">
-        <v>735.6245112034005</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="S14" t="n">
-        <v>735.6245112034005</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="T14" t="n">
-        <v>690.5149844859908</v>
+        <v>707.8416149487994</v>
       </c>
       <c r="U14" t="n">
-        <v>617.44704283224</v>
+        <v>707.8416149487994</v>
       </c>
       <c r="V14" t="n">
-        <v>472.9355318843374</v>
+        <v>707.8416149487994</v>
       </c>
       <c r="W14" t="n">
-        <v>472.9355318843374</v>
+        <v>707.8416149487994</v>
       </c>
       <c r="X14" t="n">
-        <v>472.9355318843374</v>
+        <v>524.034214419529</v>
       </c>
       <c r="Y14" t="n">
-        <v>282.7963546959007</v>
+        <v>524.034214419529</v>
       </c>
     </row>
     <row r="15">
@@ -5331,40 +5331,40 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257.5457807246819</v>
+        <v>251.1408240994607</v>
       </c>
       <c r="C15" t="n">
-        <v>68.13350645764558</v>
+        <v>241.3380324291198</v>
       </c>
       <c r="D15" t="n">
-        <v>68.13350645764558</v>
+        <v>80.55791619015156</v>
       </c>
       <c r="E15" t="n">
-        <v>68.13350645764558</v>
+        <v>80.55791619015156</v>
       </c>
       <c r="F15" t="n">
-        <v>68.13350645764558</v>
+        <v>80.55791619015156</v>
       </c>
       <c r="G15" t="n">
-        <v>68.13350645764558</v>
+        <v>80.55791619015156</v>
       </c>
       <c r="H15" t="n">
-        <v>68.13350645764558</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I15" t="n">
-        <v>68.13350645764558</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J15" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="K15" t="n">
-        <v>52.90632646829523</v>
+        <v>52.90632646829522</v>
       </c>
       <c r="L15" t="n">
-        <v>170.0832391874857</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M15" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N15" t="n">
         <v>537.9332412327074</v>
@@ -5376,31 +5376,31 @@
         <v>752.9511416662091</v>
       </c>
       <c r="Q15" t="n">
-        <v>752.9511416662091</v>
+        <v>745.9187189374391</v>
       </c>
       <c r="R15" t="n">
-        <v>752.9511416662091</v>
+        <v>745.9187189374391</v>
       </c>
       <c r="S15" t="n">
-        <v>739.020955582418</v>
+        <v>731.9885328536479</v>
       </c>
       <c r="T15" t="n">
-        <v>701.4851362320487</v>
+        <v>694.4527135032787</v>
       </c>
       <c r="U15" t="n">
-        <v>641.4702579759593</v>
+        <v>634.4378352471892</v>
       </c>
       <c r="V15" t="n">
-        <v>578.0000224762888</v>
+        <v>570.9675997475188</v>
       </c>
       <c r="W15" t="n">
-        <v>488.2109358032756</v>
+        <v>481.1785130745055</v>
       </c>
       <c r="X15" t="n">
-        <v>448.3124240166674</v>
+        <v>441.2800012878973</v>
       </c>
       <c r="Y15" t="n">
-        <v>402.2812135486905</v>
+        <v>251.1408240994607</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.05902283332418</v>
       </c>
       <c r="D16" t="n">
-        <v>15.05902283332418</v>
+        <v>47.36345297814177</v>
       </c>
       <c r="E16" t="n">
-        <v>15.05902283332418</v>
+        <v>83.13932707106021</v>
       </c>
       <c r="F16" t="n">
-        <v>15.05902283332418</v>
+        <v>121.6369675678192</v>
       </c>
       <c r="G16" t="n">
-        <v>15.05902283332418</v>
+        <v>121.6369675678192</v>
       </c>
       <c r="H16" t="n">
-        <v>15.05902283332418</v>
+        <v>121.6369675678192</v>
       </c>
       <c r="I16" t="n">
-        <v>15.05902283332418</v>
+        <v>121.6369675678192</v>
       </c>
       <c r="J16" t="n">
-        <v>15.05902283332418</v>
+        <v>121.6369675678192</v>
       </c>
       <c r="K16" t="n">
-        <v>15.05902283332418</v>
+        <v>121.6369675678192</v>
       </c>
       <c r="L16" t="n">
-        <v>44.77008855816649</v>
+        <v>121.6369675678192</v>
       </c>
       <c r="M16" t="n">
-        <v>195.746221741015</v>
+        <v>272.6131007506676</v>
       </c>
       <c r="N16" t="n">
-        <v>355.3343410640256</v>
+        <v>432.2012200736782</v>
       </c>
       <c r="O16" t="n">
-        <v>355.3343410640256</v>
+        <v>523.4429260008652</v>
       </c>
       <c r="P16" t="n">
-        <v>473.4029283408808</v>
+        <v>523.4429260008652</v>
       </c>
       <c r="Q16" t="n">
-        <v>523.4429260008649</v>
+        <v>523.4429260008652</v>
       </c>
       <c r="R16" t="n">
-        <v>497.5399647528633</v>
+        <v>497.5399647528636</v>
       </c>
       <c r="S16" t="n">
-        <v>439.3225301383117</v>
+        <v>439.3225301383119</v>
       </c>
       <c r="T16" t="n">
-        <v>392.9076105095404</v>
+        <v>392.9076105095406</v>
       </c>
       <c r="U16" t="n">
-        <v>280.9447798164375</v>
+        <v>280.9447798164376</v>
       </c>
       <c r="V16" t="n">
-        <v>212.9693985904563</v>
+        <v>212.9693985904564</v>
       </c>
       <c r="W16" t="n">
-        <v>99.33574271307566</v>
+        <v>99.33574271307572</v>
       </c>
       <c r="X16" t="n">
-        <v>54.78415924083926</v>
+        <v>54.78415924083929</v>
       </c>
       <c r="Y16" t="n">
         <v>15.05902283332418</v>
@@ -5489,58 +5489,58 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.8222699098794</v>
+        <v>462.8222699098789</v>
       </c>
       <c r="C17" t="n">
-        <v>409.6256435626567</v>
+        <v>409.625643562656</v>
       </c>
       <c r="D17" t="n">
-        <v>368.987944224476</v>
+        <v>368.9879442244755</v>
       </c>
       <c r="E17" t="n">
-        <v>294.3030202202257</v>
+        <v>294.3030202202253</v>
       </c>
       <c r="F17" t="n">
-        <v>187.5773511873115</v>
+        <v>187.577351187311</v>
       </c>
       <c r="G17" t="n">
-        <v>65.05341976673292</v>
+        <v>65.05341976673297</v>
       </c>
       <c r="H17" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="I17" t="n">
-        <v>70.97300897890271</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J17" t="n">
-        <v>181.9134206807109</v>
+        <v>201.4144303957109</v>
       </c>
       <c r="K17" t="n">
-        <v>181.9134206807109</v>
+        <v>201.4144303957109</v>
       </c>
       <c r="L17" t="n">
-        <v>228.4223471401785</v>
+        <v>247.9233568551785</v>
       </c>
       <c r="M17" t="n">
-        <v>309.0484488215919</v>
+        <v>328.5494585365919</v>
       </c>
       <c r="N17" t="n">
-        <v>384.1367291032103</v>
+        <v>403.6377388182102</v>
       </c>
       <c r="O17" t="n">
-        <v>418.1311041723966</v>
+        <v>437.6321138873965</v>
       </c>
       <c r="P17" t="n">
-        <v>418.1311041723966</v>
+        <v>437.6321138873965</v>
       </c>
       <c r="Q17" t="n">
-        <v>604.4865117347833</v>
+        <v>460.8751803312269</v>
       </c>
       <c r="R17" t="n">
-        <v>706.0348562496175</v>
+        <v>562.4235248460611</v>
       </c>
       <c r="S17" t="n">
-        <v>706.0348562496175</v>
+        <v>631.7165283539179</v>
       </c>
       <c r="T17" t="n">
         <v>706.0348562496175</v>
@@ -5555,10 +5555,10 @@
         <v>688.6131893025099</v>
       </c>
       <c r="X17" t="n">
-        <v>625.7426064769768</v>
+        <v>625.7426064769763</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.1418689809955</v>
+        <v>540.141868980995</v>
       </c>
     </row>
     <row r="18">
@@ -5568,40 +5568,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.6066358853711</v>
+        <v>195.1461669621454</v>
       </c>
       <c r="C18" t="n">
-        <v>176.6066358853711</v>
+        <v>195.1461669621454</v>
       </c>
       <c r="D18" t="n">
-        <v>176.6066358853711</v>
+        <v>195.1461669621454</v>
       </c>
       <c r="E18" t="n">
-        <v>176.6066358853711</v>
+        <v>195.1461669621454</v>
       </c>
       <c r="F18" t="n">
-        <v>176.6066358853711</v>
+        <v>195.1461669621454</v>
       </c>
       <c r="G18" t="n">
-        <v>176.6066358853711</v>
+        <v>195.1461669621454</v>
       </c>
       <c r="H18" t="n">
-        <v>176.6066358853711</v>
+        <v>68.13350645764559</v>
       </c>
       <c r="I18" t="n">
-        <v>68.13350645764558</v>
+        <v>68.13350645764559</v>
       </c>
       <c r="J18" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="K18" t="n">
-        <v>52.90632646829523</v>
+        <v>52.90632646829522</v>
       </c>
       <c r="L18" t="n">
-        <v>170.0832391874857</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M18" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N18" t="n">
         <v>537.9332412327074</v>
@@ -5613,31 +5613,31 @@
         <v>752.9511416662091</v>
       </c>
       <c r="Q18" t="n">
-        <v>745.9187189374392</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="R18" t="n">
-        <v>745.9187189374392</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="S18" t="n">
-        <v>745.9187189374392</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="T18" t="n">
-        <v>745.9187189374392</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="U18" t="n">
-        <v>555.7795417490025</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="V18" t="n">
-        <v>365.6403645605659</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="W18" t="n">
-        <v>176.6066358853711</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="X18" t="n">
-        <v>176.6066358853711</v>
+        <v>373.6820198890805</v>
       </c>
       <c r="Y18" t="n">
-        <v>176.6066358853711</v>
+        <v>373.6820198890805</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>462.8222699098798</v>
+        <v>462.8222699098793</v>
       </c>
       <c r="C20" t="n">
-        <v>409.6256435626573</v>
+        <v>409.6256435626567</v>
       </c>
       <c r="D20" t="n">
-        <v>368.9879442244766</v>
+        <v>368.9879442244759</v>
       </c>
       <c r="E20" t="n">
-        <v>294.3030202202262</v>
+        <v>294.3030202202257</v>
       </c>
       <c r="F20" t="n">
-        <v>187.5773511873124</v>
+        <v>187.5773511873112</v>
       </c>
       <c r="G20" t="n">
-        <v>65.05341976673292</v>
+        <v>65.05341976673297</v>
       </c>
       <c r="H20" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="I20" t="n">
-        <v>15.05902283332418</v>
+        <v>70.9730089789027</v>
       </c>
       <c r="J20" t="n">
-        <v>112.6204171728543</v>
+        <v>70.9730089789027</v>
       </c>
       <c r="K20" t="n">
-        <v>112.6204171728543</v>
+        <v>70.9730089789027</v>
       </c>
       <c r="L20" t="n">
-        <v>159.1293436323219</v>
+        <v>117.4819354383702</v>
       </c>
       <c r="M20" t="n">
-        <v>239.7554453137353</v>
+        <v>198.1080371197837</v>
       </c>
       <c r="N20" t="n">
-        <v>314.8437255953537</v>
+        <v>273.196317401402</v>
       </c>
       <c r="O20" t="n">
-        <v>348.83810066454</v>
+        <v>307.1906924705883</v>
       </c>
       <c r="P20" t="n">
-        <v>348.83810066454</v>
+        <v>307.1906924705883</v>
       </c>
       <c r="Q20" t="n">
-        <v>535.1935082269267</v>
+        <v>460.8751803312269</v>
       </c>
       <c r="R20" t="n">
-        <v>636.7418527417609</v>
+        <v>562.4235248460611</v>
       </c>
       <c r="S20" t="n">
-        <v>706.0348562496176</v>
+        <v>631.7165283539179</v>
       </c>
       <c r="T20" t="n">
-        <v>706.0348562496176</v>
+        <v>706.0348562496175</v>
       </c>
       <c r="U20" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="V20" t="n">
-        <v>729.3764484220439</v>
+        <v>729.3764484220436</v>
       </c>
       <c r="W20" t="n">
-        <v>688.6131893025101</v>
+        <v>688.6131893025099</v>
       </c>
       <c r="X20" t="n">
-        <v>625.7426064769772</v>
+        <v>625.7426064769768</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.1418689809959</v>
+        <v>540.1418689809955</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>188.6222267119097</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="C21" t="n">
-        <v>188.6222267119097</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="D21" t="n">
-        <v>188.6222267119097</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="E21" t="n">
-        <v>15.05902283332418</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="F21" t="n">
-        <v>15.05902283332418</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="G21" t="n">
-        <v>15.05902283332418</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="H21" t="n">
-        <v>15.05902283332418</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="I21" t="n">
-        <v>15.05902283332418</v>
+        <v>68.13350645764559</v>
       </c>
       <c r="J21" t="n">
         <v>15.05902283332418</v>
       </c>
       <c r="K21" t="n">
-        <v>52.90632646829524</v>
+        <v>52.90632646829522</v>
       </c>
       <c r="L21" t="n">
-        <v>170.0832391874857</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M21" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N21" t="n">
         <v>537.9332412327074</v>
       </c>
       <c r="O21" t="n">
-        <v>669.4632308531762</v>
+        <v>669.4632308531761</v>
       </c>
       <c r="P21" t="n">
-        <v>752.9511416662092</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="Q21" t="n">
-        <v>745.9187189374393</v>
+        <v>745.9187189374391</v>
       </c>
       <c r="R21" t="n">
-        <v>609.7925961372246</v>
+        <v>609.7925961372243</v>
       </c>
       <c r="S21" t="n">
-        <v>609.7925961372246</v>
+        <v>419.6534189487877</v>
       </c>
       <c r="T21" t="n">
-        <v>609.7925961372246</v>
+        <v>366.7458130738078</v>
       </c>
       <c r="U21" t="n">
-        <v>609.7925961372246</v>
+        <v>366.7458130738078</v>
       </c>
       <c r="V21" t="n">
-        <v>609.7925961372246</v>
+        <v>366.7458130738078</v>
       </c>
       <c r="W21" t="n">
-        <v>557.2972568272814</v>
+        <v>366.7458130738078</v>
       </c>
       <c r="X21" t="n">
-        <v>557.2972568272814</v>
+        <v>176.6066358853712</v>
       </c>
       <c r="Y21" t="n">
-        <v>367.1580796388448</v>
+        <v>176.6066358853712</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>462.8222699098795</v>
+        <v>462.8222699098792</v>
       </c>
       <c r="C23" t="n">
-        <v>409.6256435626569</v>
+        <v>409.6256435626564</v>
       </c>
       <c r="D23" t="n">
-        <v>368.9879442244762</v>
+        <v>368.9879442244757</v>
       </c>
       <c r="E23" t="n">
-        <v>294.3030202202259</v>
+        <v>294.3030202202254</v>
       </c>
       <c r="F23" t="n">
-        <v>187.5773511873116</v>
+        <v>187.5773511873109</v>
       </c>
       <c r="G23" t="n">
-        <v>65.05341976673292</v>
+        <v>65.05341976673294</v>
       </c>
       <c r="H23" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I23" t="n">
-        <v>70.97300897890271</v>
+        <v>70.9730089789027</v>
       </c>
       <c r="J23" t="n">
-        <v>70.97300897890271</v>
+        <v>70.9730089789027</v>
       </c>
       <c r="K23" t="n">
-        <v>70.97300897890271</v>
+        <v>70.9730089789027</v>
       </c>
       <c r="L23" t="n">
-        <v>117.4819354383703</v>
+        <v>117.4819354383702</v>
       </c>
       <c r="M23" t="n">
         <v>198.1080371197837</v>
       </c>
       <c r="N23" t="n">
-        <v>273.1963174014022</v>
+        <v>273.196317401402</v>
       </c>
       <c r="O23" t="n">
-        <v>307.1906924705884</v>
+        <v>307.1906924705883</v>
       </c>
       <c r="P23" t="n">
-        <v>307.1906924705884</v>
+        <v>376.0681172836744</v>
       </c>
       <c r="Q23" t="n">
-        <v>460.8751803312272</v>
+        <v>562.4235248460611</v>
       </c>
       <c r="R23" t="n">
-        <v>562.4235248460614</v>
+        <v>562.4235248460611</v>
       </c>
       <c r="S23" t="n">
-        <v>631.7165283539181</v>
+        <v>631.7165283539179</v>
       </c>
       <c r="T23" t="n">
-        <v>706.0348562496177</v>
+        <v>706.0348562496175</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9511416662093</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="V23" t="n">
-        <v>729.3764484220439</v>
+        <v>729.3764484220434</v>
       </c>
       <c r="W23" t="n">
-        <v>688.6131893025101</v>
+        <v>688.6131893025096</v>
       </c>
       <c r="X23" t="n">
-        <v>625.742606476977</v>
+        <v>625.7426064769767</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.1418689809957</v>
+        <v>540.1418689809952</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>188.6222267119097</v>
+        <v>194.1369343624007</v>
       </c>
       <c r="C24" t="n">
-        <v>188.6222267119097</v>
+        <v>194.1369343624007</v>
       </c>
       <c r="D24" t="n">
-        <v>188.6222267119097</v>
+        <v>194.1369343624007</v>
       </c>
       <c r="E24" t="n">
-        <v>15.05902283332419</v>
+        <v>194.1369343624007</v>
       </c>
       <c r="F24" t="n">
-        <v>15.05902283332419</v>
+        <v>194.1369343624007</v>
       </c>
       <c r="G24" t="n">
-        <v>15.05902283332419</v>
+        <v>43.8891260445962</v>
       </c>
       <c r="H24" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I24" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J24" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="K24" t="n">
-        <v>52.90632646829525</v>
+        <v>52.90632646829522</v>
       </c>
       <c r="L24" t="n">
-        <v>170.0832391874857</v>
+        <v>170.0832391874856</v>
       </c>
       <c r="M24" t="n">
-        <v>351.5778336703207</v>
+        <v>351.5778336703206</v>
       </c>
       <c r="N24" t="n">
-        <v>537.9332412327075</v>
+        <v>537.9332412327074</v>
       </c>
       <c r="O24" t="n">
-        <v>669.4632308531764</v>
+        <v>669.4632308531761</v>
       </c>
       <c r="P24" t="n">
-        <v>752.9511416662093</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="Q24" t="n">
-        <v>745.9187189374394</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="R24" t="n">
-        <v>745.9187189374394</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="S24" t="n">
-        <v>745.9187189374394</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="T24" t="n">
-        <v>745.9187189374394</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="U24" t="n">
-        <v>745.9187189374394</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="V24" t="n">
-        <v>745.9187189374394</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="W24" t="n">
-        <v>555.7795417490026</v>
+        <v>752.9511416662091</v>
       </c>
       <c r="X24" t="n">
-        <v>365.6403645605659</v>
+        <v>562.8119644777724</v>
       </c>
       <c r="Y24" t="n">
-        <v>188.6222267119097</v>
+        <v>372.6727872893358</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="C25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="D25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="E25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="F25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="G25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="H25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="I25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="J25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="K25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="L25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="M25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="N25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="O25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="P25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="R25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="S25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="T25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="U25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="V25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="W25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="X25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.05902283332419</v>
+        <v>15.05902283332418</v>
       </c>
     </row>
     <row r="26">
@@ -6203,37 +6203,37 @@
         <v>1020.439292541341</v>
       </c>
       <c r="C26" t="n">
-        <v>882.4100026867673</v>
+        <v>882.4100026867663</v>
       </c>
       <c r="D26" t="n">
-        <v>756.939639841235</v>
+        <v>756.9396398412341</v>
       </c>
       <c r="E26" t="n">
-        <v>597.4220523296333</v>
+        <v>597.4220523296324</v>
       </c>
       <c r="F26" t="n">
-        <v>405.8637197893675</v>
+        <v>405.8637197893667</v>
       </c>
       <c r="G26" t="n">
-        <v>198.5071248614375</v>
+        <v>198.5071248614368</v>
       </c>
       <c r="H26" t="n">
-        <v>63.68006442067724</v>
+        <v>63.68006442067698</v>
       </c>
       <c r="I26" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="J26" t="n">
-        <v>171.1898251244088</v>
+        <v>171.1898251244086</v>
       </c>
       <c r="K26" t="n">
-        <v>375.7800213632371</v>
+        <v>375.7800213632369</v>
       </c>
       <c r="L26" t="n">
-        <v>633.7098832436036</v>
+        <v>633.7098832436034</v>
       </c>
       <c r="M26" t="n">
-        <v>925.7569203459159</v>
+        <v>925.7569203459155</v>
       </c>
       <c r="N26" t="n">
         <v>1212.266136048433</v>
@@ -6251,25 +6251,25 @@
         <v>1794.833373162373</v>
       </c>
       <c r="S26" t="n">
-        <v>1780.700641812819</v>
+        <v>1780.700641812818</v>
       </c>
       <c r="T26" t="n">
-        <v>1771.695269291795</v>
+        <v>1771.695269291794</v>
       </c>
       <c r="U26" t="n">
-        <v>1734.731481834429</v>
+        <v>1734.731481834428</v>
       </c>
       <c r="V26" t="n">
-        <v>1626.324125082912</v>
+        <v>1626.324125082911</v>
       </c>
       <c r="W26" t="n">
-        <v>1500.728202456027</v>
+        <v>1500.728202456026</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.024956123142</v>
+        <v>1353.024956123141</v>
       </c>
       <c r="Y26" t="n">
-        <v>1182.591555119809</v>
+        <v>1182.591555119808</v>
       </c>
     </row>
     <row r="27">
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>559.2998618916253</v>
+        <v>196.3243837460034</v>
       </c>
       <c r="C27" t="n">
-        <v>369.8875876245889</v>
+        <v>196.3243837460034</v>
       </c>
       <c r="D27" t="n">
-        <v>369.8875876245889</v>
+        <v>196.3243837460034</v>
       </c>
       <c r="E27" t="n">
         <v>196.3243837460034</v>
       </c>
       <c r="F27" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="G27" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="H27" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="I27" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="J27" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="K27" t="n">
-        <v>73.74397109821852</v>
+        <v>73.74397109821849</v>
       </c>
       <c r="L27" t="n">
         <v>190.9208838174089</v>
@@ -6315,40 +6315,40 @@
         <v>372.4154783002439</v>
       </c>
       <c r="N27" t="n">
-        <v>577.1335842118983</v>
+        <v>577.1335842118982</v>
       </c>
       <c r="O27" t="n">
-        <v>708.6635738323671</v>
+        <v>708.663573832367</v>
       </c>
       <c r="P27" t="n">
-        <v>792.1514846454</v>
+        <v>792.1514846453999</v>
       </c>
       <c r="Q27" t="n">
-        <v>792.1514846454</v>
+        <v>792.1514846453999</v>
       </c>
       <c r="R27" t="n">
-        <v>792.1514846454</v>
+        <v>792.1514846453999</v>
       </c>
       <c r="S27" t="n">
-        <v>792.1514846454</v>
+        <v>747.8664741875788</v>
       </c>
       <c r="T27" t="n">
-        <v>790.7198194914165</v>
+        <v>746.4348090335952</v>
       </c>
       <c r="U27" t="n">
-        <v>766.8090954317129</v>
+        <v>722.5240849738916</v>
       </c>
       <c r="V27" t="n">
-        <v>626.7062082300664</v>
+        <v>695.1580036706068</v>
       </c>
       <c r="W27" t="n">
-        <v>573.0212757534389</v>
+        <v>425.7594344008982</v>
       </c>
       <c r="X27" t="n">
-        <v>569.2269181632164</v>
+        <v>206.2514400175945</v>
       </c>
       <c r="Y27" t="n">
-        <v>559.2998618916253</v>
+        <v>196.3243837460034</v>
       </c>
     </row>
     <row r="28">
@@ -6358,52 +6358,52 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="C28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="D28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="E28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="F28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="G28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="H28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="I28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
       <c r="J28" t="n">
-        <v>35.89666746324747</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="K28" t="n">
-        <v>35.89666746324747</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="L28" t="n">
-        <v>35.89666746324747</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="M28" t="n">
-        <v>35.89666746324747</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="N28" t="n">
-        <v>35.89666746324747</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="O28" t="n">
-        <v>35.89666746324747</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="P28" t="n">
-        <v>180.2228508202248</v>
+        <v>170.2246616115135</v>
       </c>
       <c r="Q28" t="n">
-        <v>265.6485300080865</v>
+        <v>255.6503407993752</v>
       </c>
       <c r="R28" t="n">
         <v>265.6485300080865</v>
@@ -6424,10 +6424,10 @@
         <v>47.96507895022746</v>
       </c>
       <c r="X28" t="n">
-        <v>39.51764967437681</v>
+        <v>39.5176496743768</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.89666746324747</v>
+        <v>35.89666746324746</v>
       </c>
     </row>
     <row r="29">
@@ -6440,34 +6440,34 @@
         <v>1020.439292541341</v>
       </c>
       <c r="C29" t="n">
-        <v>882.4100026867668</v>
+        <v>882.4100026867666</v>
       </c>
       <c r="D29" t="n">
-        <v>756.9396398412346</v>
+        <v>756.9396398412343</v>
       </c>
       <c r="E29" t="n">
-        <v>597.4220523296327</v>
+        <v>597.4220523296326</v>
       </c>
       <c r="F29" t="n">
         <v>405.8637197893669</v>
       </c>
       <c r="G29" t="n">
-        <v>198.5071248614368</v>
+        <v>198.507124861437</v>
       </c>
       <c r="H29" t="n">
-        <v>63.68006442067704</v>
+        <v>63.68006442067696</v>
       </c>
       <c r="I29" t="n">
         <v>35.89666746324745</v>
       </c>
       <c r="J29" t="n">
-        <v>171.1898251244085</v>
+        <v>171.1898251244086</v>
       </c>
       <c r="K29" t="n">
-        <v>375.7800213632367</v>
+        <v>375.7800213632369</v>
       </c>
       <c r="L29" t="n">
-        <v>633.7098832436031</v>
+        <v>633.7098832436034</v>
       </c>
       <c r="M29" t="n">
         <v>925.7569203459157</v>
@@ -6506,7 +6506,7 @@
         <v>1353.024956123141</v>
       </c>
       <c r="Y29" t="n">
-        <v>1182.591555119809</v>
+        <v>1182.591555119808</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>196.3243837460034</v>
+        <v>559.6522618478375</v>
       </c>
       <c r="C30" t="n">
-        <v>196.3243837460034</v>
+        <v>370.2399875808012</v>
       </c>
       <c r="D30" t="n">
-        <v>196.3243837460034</v>
+        <v>209.459871341833</v>
       </c>
       <c r="E30" t="n">
-        <v>196.3243837460034</v>
+        <v>35.89666746324745</v>
       </c>
       <c r="F30" t="n">
         <v>35.89666746324745</v>
@@ -6543,7 +6543,7 @@
         <v>35.89666746324745</v>
       </c>
       <c r="K30" t="n">
-        <v>73.74397109821851</v>
+        <v>73.74397109821848</v>
       </c>
       <c r="L30" t="n">
         <v>190.9208838174089</v>
@@ -6552,40 +6552,40 @@
         <v>372.4154783002439</v>
       </c>
       <c r="N30" t="n">
-        <v>577.1335842118983</v>
+        <v>577.1335842118982</v>
       </c>
       <c r="O30" t="n">
-        <v>708.6635738323671</v>
+        <v>708.663573832367</v>
       </c>
       <c r="P30" t="n">
-        <v>792.1514846454</v>
+        <v>792.1514846453999</v>
       </c>
       <c r="Q30" t="n">
-        <v>785.1190619166301</v>
+        <v>792.1514846453999</v>
       </c>
       <c r="R30" t="n">
-        <v>785.1190619166301</v>
+        <v>792.1514846453999</v>
       </c>
       <c r="S30" t="n">
-        <v>785.1190619166301</v>
+        <v>792.1514846453999</v>
       </c>
       <c r="T30" t="n">
-        <v>783.6873967626466</v>
+        <v>790.7198194914165</v>
       </c>
       <c r="U30" t="n">
-        <v>759.7766727029428</v>
+        <v>766.8090954317129</v>
       </c>
       <c r="V30" t="n">
-        <v>695.1580036706068</v>
+        <v>739.4430141284282</v>
       </c>
       <c r="W30" t="n">
-        <v>425.7594344008982</v>
+        <v>685.7580816518007</v>
       </c>
       <c r="X30" t="n">
-        <v>421.9650768106757</v>
+        <v>569.5793181194286</v>
       </c>
       <c r="Y30" t="n">
-        <v>196.3243837460034</v>
+        <v>559.6522618478375</v>
       </c>
     </row>
     <row r="31">
@@ -6619,49 +6619,49 @@
         <v>35.89666746324745</v>
       </c>
       <c r="J31" t="n">
-        <v>35.89666746324745</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="K31" t="n">
-        <v>35.89666746324745</v>
+        <v>128.2378039399679</v>
       </c>
       <c r="L31" t="n">
-        <v>35.89666746324745</v>
+        <v>170.2246616115132</v>
       </c>
       <c r="M31" t="n">
-        <v>35.89666746324745</v>
+        <v>170.2246616115132</v>
       </c>
       <c r="N31" t="n">
-        <v>35.89666746324745</v>
+        <v>170.2246616115132</v>
       </c>
       <c r="O31" t="n">
-        <v>180.2228508202252</v>
+        <v>170.2246616115132</v>
       </c>
       <c r="P31" t="n">
-        <v>180.2228508202252</v>
+        <v>170.2246616115132</v>
       </c>
       <c r="Q31" t="n">
-        <v>265.6485300080869</v>
+        <v>255.6503407993749</v>
       </c>
       <c r="R31" t="n">
-        <v>265.6485300080869</v>
+        <v>265.6485300080863</v>
       </c>
       <c r="S31" t="n">
-        <v>243.5352495899209</v>
+        <v>243.5352495899204</v>
       </c>
       <c r="T31" t="n">
-        <v>233.2244841575353</v>
+        <v>233.2244841575348</v>
       </c>
       <c r="U31" t="n">
-        <v>157.3658076608181</v>
+        <v>157.3658076608177</v>
       </c>
       <c r="V31" t="n">
-        <v>125.4945806312225</v>
+        <v>125.4945806312223</v>
       </c>
       <c r="W31" t="n">
-        <v>47.96507895022756</v>
+        <v>47.96507895022739</v>
       </c>
       <c r="X31" t="n">
-        <v>39.51764967437685</v>
+        <v>39.51764967437676</v>
       </c>
       <c r="Y31" t="n">
         <v>35.89666746324745</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1019.832850486845</v>
+        <v>1019.832850486846</v>
       </c>
       <c r="C32" t="n">
-        <v>881.8865652710143</v>
+        <v>881.8865652710157</v>
       </c>
       <c r="D32" t="n">
-        <v>756.4992070642259</v>
+        <v>756.4992070642272</v>
       </c>
       <c r="E32" t="n">
-        <v>597.0646241913678</v>
+        <v>597.0646241913691</v>
       </c>
       <c r="F32" t="n">
-        <v>405.5892962898457</v>
+        <v>405.5892962898472</v>
       </c>
       <c r="G32" t="n">
-        <v>198.3157060006602</v>
+        <v>198.3157060006611</v>
       </c>
       <c r="H32" t="n">
-        <v>63.57165019864433</v>
+        <v>63.57165019864428</v>
       </c>
       <c r="I32" t="n">
         <v>35.87125787995854</v>
@@ -6701,13 +6701,13 @@
         <v>171.2457683875525</v>
       </c>
       <c r="K32" t="n">
-        <v>375.9173174728135</v>
+        <v>375.9173174728136</v>
       </c>
       <c r="L32" t="n">
-        <v>633.9285321996126</v>
+        <v>633.9285321996128</v>
       </c>
       <c r="M32" t="n">
-        <v>926.0569221483577</v>
+        <v>926.0569221483579</v>
       </c>
       <c r="N32" t="n">
         <v>1212.647490697308</v>
@@ -6716,7 +6716,7 @@
         <v>1458.144154033826</v>
       </c>
       <c r="P32" t="n">
-        <v>1652.535037120588</v>
+        <v>1654.51228231964</v>
       </c>
       <c r="Q32" t="n">
         <v>1775.077690140216</v>
@@ -6725,25 +6725,25 @@
         <v>1793.562893997927</v>
       </c>
       <c r="S32" t="n">
-        <v>1779.513167287115</v>
+        <v>1779.513167287117</v>
       </c>
       <c r="T32" t="n">
-        <v>1770.590799404835</v>
+        <v>1770.590799404836</v>
       </c>
       <c r="U32" t="n">
-        <v>1733.710016586213</v>
+        <v>1733.710016586215</v>
       </c>
       <c r="V32" t="n">
-        <v>1625.38566447344</v>
+        <v>1625.385664473442</v>
       </c>
       <c r="W32" t="n">
-        <v>1499.872746485299</v>
+        <v>1499.8727464853</v>
       </c>
       <c r="X32" t="n">
-        <v>1352.252504791158</v>
+        <v>1352.252504791159</v>
       </c>
       <c r="Y32" t="n">
-        <v>1181.902108426569</v>
+        <v>1181.90210842657</v>
       </c>
     </row>
     <row r="33">
@@ -6753,13 +6753,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>35.87125787995854</v>
+        <v>559.6268522645486</v>
       </c>
       <c r="C33" t="n">
-        <v>35.87125787995854</v>
+        <v>370.2145779975123</v>
       </c>
       <c r="D33" t="n">
-        <v>35.87125787995854</v>
+        <v>209.4344617585441</v>
       </c>
       <c r="E33" t="n">
         <v>35.87125787995854</v>
@@ -6780,49 +6780,49 @@
         <v>35.87125787995854</v>
       </c>
       <c r="K33" t="n">
-        <v>73.7185615149296</v>
+        <v>73.71856151492958</v>
       </c>
       <c r="L33" t="n">
         <v>190.89547423412</v>
       </c>
       <c r="M33" t="n">
-        <v>372.3900687169551</v>
+        <v>372.3900687169549</v>
       </c>
       <c r="N33" t="n">
-        <v>577.1081746286095</v>
+        <v>577.1081746286093</v>
       </c>
       <c r="O33" t="n">
-        <v>708.6381642490783</v>
+        <v>708.638164249078</v>
       </c>
       <c r="P33" t="n">
-        <v>792.1260750621112</v>
+        <v>792.126075062111</v>
       </c>
       <c r="Q33" t="n">
-        <v>792.1260750621112</v>
+        <v>792.126075062111</v>
       </c>
       <c r="R33" t="n">
-        <v>792.1260750621112</v>
+        <v>792.126075062111</v>
       </c>
       <c r="S33" t="n">
-        <v>792.1260750621112</v>
+        <v>792.126075062111</v>
       </c>
       <c r="T33" t="n">
-        <v>790.7774145468715</v>
+        <v>790.7774145468712</v>
       </c>
       <c r="U33" t="n">
-        <v>766.9496951259115</v>
+        <v>766.9496951259114</v>
       </c>
       <c r="V33" t="n">
-        <v>523.8699770295456</v>
+        <v>739.6666184613705</v>
       </c>
       <c r="W33" t="n">
-        <v>254.4714077598369</v>
+        <v>686.0646906234867</v>
       </c>
       <c r="X33" t="n">
-        <v>45.71530951280596</v>
+        <v>682.353337672008</v>
       </c>
       <c r="Y33" t="n">
-        <v>35.87125787995854</v>
+        <v>672.5092860391607</v>
       </c>
     </row>
     <row r="34">
@@ -6835,70 +6835,70 @@
         <v>35.87125787995854</v>
       </c>
       <c r="C34" t="n">
-        <v>52.06304009616515</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="D34" t="n">
-        <v>119.8345046152932</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="E34" t="n">
-        <v>191.077413082522</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="F34" t="n">
-        <v>265.0420879535914</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="G34" t="n">
-        <v>265.0420879535914</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="H34" t="n">
-        <v>265.0420879535914</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="I34" t="n">
-        <v>265.0420879535914</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="J34" t="n">
-        <v>265.0420879535914</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="K34" t="n">
-        <v>265.0420879535914</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="L34" t="n">
-        <v>265.0420879535914</v>
+        <v>35.87125787995854</v>
       </c>
       <c r="M34" t="n">
-        <v>265.0420879535914</v>
+        <v>111.5064663024253</v>
       </c>
       <c r="N34" t="n">
-        <v>265.0420879535914</v>
+        <v>111.5064663024253</v>
       </c>
       <c r="O34" t="n">
-        <v>265.0420879535914</v>
+        <v>111.5064663024253</v>
       </c>
       <c r="P34" t="n">
-        <v>265.0420879535914</v>
+        <v>265.042087953591</v>
       </c>
       <c r="Q34" t="n">
-        <v>265.0420879535914</v>
+        <v>265.042087953591</v>
       </c>
       <c r="R34" t="n">
-        <v>265.0420879535914</v>
+        <v>265.042087953591</v>
       </c>
       <c r="S34" t="n">
-        <v>243.0118121741693</v>
+        <v>243.0118121741689</v>
       </c>
       <c r="T34" t="n">
-        <v>232.7840513805274</v>
+        <v>232.7840513805271</v>
       </c>
       <c r="U34" t="n">
-        <v>157.008379522554</v>
+        <v>157.0083795225538</v>
       </c>
       <c r="V34" t="n">
-        <v>125.2201571317022</v>
+        <v>125.2201571317021</v>
       </c>
       <c r="W34" t="n">
-        <v>47.77366008945107</v>
+        <v>47.77366008945096</v>
       </c>
       <c r="X34" t="n">
-        <v>39.40923545234414</v>
+        <v>39.40923545234408</v>
       </c>
       <c r="Y34" t="n">
         <v>35.87125787995854</v>
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>630.1442098352471</v>
+        <v>630.1442098352475</v>
       </c>
       <c r="C35" t="n">
-        <v>550.0663537950963</v>
+        <v>550.0663537950968</v>
       </c>
       <c r="D35" t="n">
-        <v>482.5474247639877</v>
+        <v>482.547424763988</v>
       </c>
       <c r="E35" t="n">
-        <v>380.9812710668093</v>
+        <v>380.9812710668097</v>
       </c>
       <c r="F35" t="n">
-        <v>247.3743723409671</v>
+        <v>247.3743723409673</v>
       </c>
       <c r="G35" t="n">
-        <v>97.96921122746112</v>
+        <v>97.96921122746117</v>
       </c>
       <c r="H35" t="n">
         <v>21.09358460112435</v>
@@ -6938,10 +6938,10 @@
         <v>242.7526354673417</v>
       </c>
       <c r="K35" t="n">
-        <v>242.7526354673417</v>
+        <v>452.5112576629932</v>
       </c>
       <c r="L35" t="n">
-        <v>499.0201841224606</v>
+        <v>499.0201841224607</v>
       </c>
       <c r="M35" t="n">
         <v>579.6462858038741</v>
@@ -6974,13 +6974,13 @@
         <v>1004.223307119124</v>
       </c>
       <c r="W35" t="n">
-        <v>936.5788183066618</v>
+        <v>936.5788183066621</v>
       </c>
       <c r="X35" t="n">
-        <v>846.8270057882007</v>
+        <v>846.8270057882009</v>
       </c>
       <c r="Y35" t="n">
-        <v>734.3450385992912</v>
+        <v>734.3450385992916</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>758.3513788927918</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="C36" t="n">
-        <v>568.9391046257555</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="D36" t="n">
-        <v>408.1589883867872</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="E36" t="n">
-        <v>234.5957845082017</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="F36" t="n">
-        <v>74.16806822544575</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="G36" t="n">
-        <v>74.16806822544575</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="H36" t="n">
-        <v>74.16806822544575</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="I36" t="n">
-        <v>74.16806822544575</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="J36" t="n">
         <v>21.09358460112435</v>
       </c>
       <c r="K36" t="n">
-        <v>58.9408882360954</v>
+        <v>58.94088823609538</v>
       </c>
       <c r="L36" t="n">
         <v>176.1178009552858</v>
@@ -7026,40 +7026,40 @@
         <v>357.6123954381208</v>
       </c>
       <c r="N36" t="n">
-        <v>562.3305013497752</v>
+        <v>562.3305013497751</v>
       </c>
       <c r="O36" t="n">
-        <v>693.860490970244</v>
+        <v>693.8604909702439</v>
       </c>
       <c r="P36" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="Q36" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="R36" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="S36" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="T36" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="U36" t="n">
-        <v>777.3484017832769</v>
+        <v>750.0144359838791</v>
       </c>
       <c r="V36" t="n">
-        <v>777.3484017832769</v>
+        <v>506.9347178875132</v>
       </c>
       <c r="W36" t="n">
-        <v>777.3484017832769</v>
+        <v>240.601578984428</v>
       </c>
       <c r="X36" t="n">
-        <v>777.3484017832769</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="Y36" t="n">
-        <v>777.3484017832769</v>
+        <v>21.09358460112435</v>
       </c>
     </row>
     <row r="37">
@@ -7114,13 +7114,13 @@
         <v>21.09358460112435</v>
       </c>
       <c r="Q37" t="n">
-        <v>21.09358460112435</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="R37" t="n">
-        <v>21.09358460112435</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="S37" t="n">
-        <v>21.09358460112435</v>
+        <v>58.57889514998946</v>
       </c>
       <c r="T37" t="n">
         <v>58.57889514998946</v>
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>630.1442098352475</v>
+        <v>630.1442098352477</v>
       </c>
       <c r="C38" t="n">
-        <v>550.0663537950968</v>
+        <v>550.066353795097</v>
       </c>
       <c r="D38" t="n">
-        <v>482.547424763988</v>
+        <v>482.5474247639882</v>
       </c>
       <c r="E38" t="n">
-        <v>380.9812710668097</v>
+        <v>380.9812710668099</v>
       </c>
       <c r="F38" t="n">
-        <v>247.3743723409674</v>
+        <v>247.3743723409676</v>
       </c>
       <c r="G38" t="n">
-        <v>97.96921122746112</v>
+        <v>97.96921122746114</v>
       </c>
       <c r="H38" t="n">
         <v>21.09358460112435</v>
@@ -7175,49 +7175,49 @@
         <v>242.7526354673417</v>
       </c>
       <c r="K38" t="n">
-        <v>503.7857449062556</v>
+        <v>242.7526354673417</v>
       </c>
       <c r="L38" t="n">
-        <v>550.2946713657232</v>
+        <v>289.2615619268093</v>
       </c>
       <c r="M38" t="n">
-        <v>630.9207730471367</v>
+        <v>369.8876636082227</v>
       </c>
       <c r="N38" t="n">
-        <v>706.009053328755</v>
+        <v>444.975943889841</v>
       </c>
       <c r="O38" t="n">
-        <v>740.0034283979413</v>
+        <v>478.9703189590273</v>
       </c>
       <c r="P38" t="n">
-        <v>740.0034283979413</v>
+        <v>688.728941154679</v>
       </c>
       <c r="Q38" t="n">
-        <v>867.9884416093904</v>
+        <v>867.9884416093906</v>
       </c>
       <c r="R38" t="n">
-        <v>943.1904929021858</v>
+        <v>943.1904929021861</v>
       </c>
       <c r="S38" t="n">
-        <v>986.1372031880038</v>
+        <v>986.137203188004</v>
       </c>
       <c r="T38" t="n">
         <v>1034.109237861665</v>
       </c>
       <c r="U38" t="n">
-        <v>1054.679230056217</v>
+        <v>1054.679230056218</v>
       </c>
       <c r="V38" t="n">
         <v>1004.223307119124</v>
       </c>
       <c r="W38" t="n">
-        <v>936.5788183066621</v>
+        <v>936.5788183066625</v>
       </c>
       <c r="X38" t="n">
-        <v>846.8270057882009</v>
+        <v>846.8270057882013</v>
       </c>
       <c r="Y38" t="n">
-        <v>734.3450385992916</v>
+        <v>734.3450385992919</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>544.8491789857144</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="C39" t="n">
-        <v>355.4369047186781</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="D39" t="n">
-        <v>194.6567884797099</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="E39" t="n">
-        <v>21.09358460112435</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="F39" t="n">
-        <v>21.09358460112435</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="G39" t="n">
-        <v>21.09358460112435</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="H39" t="n">
-        <v>21.09358460112435</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="I39" t="n">
         <v>21.09358460112435</v>
@@ -7254,7 +7254,7 @@
         <v>21.09358460112435</v>
       </c>
       <c r="K39" t="n">
-        <v>58.9408882360954</v>
+        <v>58.94088823609538</v>
       </c>
       <c r="L39" t="n">
         <v>176.1178009552858</v>
@@ -7263,40 +7263,40 @@
         <v>357.6123954381208</v>
       </c>
       <c r="N39" t="n">
-        <v>562.3305013497752</v>
+        <v>562.3305013497751</v>
       </c>
       <c r="O39" t="n">
-        <v>693.860490970244</v>
+        <v>693.8604909702439</v>
       </c>
       <c r="P39" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="Q39" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="R39" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="S39" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="T39" t="n">
-        <v>777.3484017832769</v>
+        <v>777.3484017832768</v>
       </c>
       <c r="U39" t="n">
-        <v>777.3484017832769</v>
+        <v>537.7240409304919</v>
       </c>
       <c r="V39" t="n">
-        <v>777.3484017832769</v>
+        <v>294.644322834126</v>
       </c>
       <c r="W39" t="n">
-        <v>777.3484017832769</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="X39" t="n">
-        <v>723.3850319126495</v>
+        <v>129.5667140288499</v>
       </c>
       <c r="Y39" t="n">
-        <v>723.3850319126495</v>
+        <v>129.5667140288499</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="C40" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="D40" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="E40" t="n">
-        <v>58.57889514998946</v>
+        <v>21.09358460112435</v>
       </c>
       <c r="F40" t="n">
         <v>58.57889514998946</v>
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>818.1122023226571</v>
+        <v>818.1122023226568</v>
       </c>
       <c r="C41" t="n">
-        <v>707.8663094255124</v>
+        <v>707.8663094255121</v>
       </c>
       <c r="D41" t="n">
-        <v>610.1793435374097</v>
+        <v>610.1793435374095</v>
       </c>
       <c r="E41" t="n">
-        <v>478.4451529832374</v>
+        <v>478.4451529832372</v>
       </c>
       <c r="F41" t="n">
         <v>314.6702174004013</v>
@@ -7409,52 +7409,52 @@
         <v>28.05335594657065</v>
       </c>
       <c r="J41" t="n">
-        <v>190.5770209657086</v>
+        <v>190.5770209657085</v>
       </c>
       <c r="K41" t="n">
-        <v>422.3977245625135</v>
+        <v>238.5204204689112</v>
       </c>
       <c r="L41" t="n">
-        <v>523.6807897072547</v>
+        <v>523.6807897072543</v>
       </c>
       <c r="M41" t="n">
-        <v>604.3068913886682</v>
+        <v>604.3068913886677</v>
       </c>
       <c r="N41" t="n">
-        <v>679.3951716702866</v>
+        <v>918.0466144491617</v>
       </c>
       <c r="O41" t="n">
-        <v>952.0409895183484</v>
+        <v>952.0409895183479</v>
       </c>
       <c r="P41" t="n">
         <v>1175.558272315706</v>
       </c>
       <c r="Q41" t="n">
-        <v>1325.250079846878</v>
+        <v>1325.250079846877</v>
       </c>
       <c r="R41" t="n">
-        <v>1370.884438216134</v>
+        <v>1370.884438216133</v>
       </c>
       <c r="S41" t="n">
-        <v>1384.263455578412</v>
+        <v>1384.263455578411</v>
       </c>
       <c r="T41" t="n">
-        <v>1402.667797328533</v>
+        <v>1402.667797328532</v>
       </c>
       <c r="U41" t="n">
         <v>1393.487406828597</v>
       </c>
       <c r="V41" t="n">
-        <v>1312.86344703451</v>
+        <v>1312.863447034509</v>
       </c>
       <c r="W41" t="n">
-        <v>1215.050921365054</v>
+        <v>1215.050921365053</v>
       </c>
       <c r="X41" t="n">
-        <v>1095.131071989599</v>
+        <v>1095.131071989598</v>
       </c>
       <c r="Y41" t="n">
-        <v>952.4810679436953</v>
+        <v>952.4810679436948</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>310.0896892528817</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="C42" t="n">
-        <v>310.0896892528817</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="D42" t="n">
-        <v>310.0896892528817</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="E42" t="n">
-        <v>136.5264853742962</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="F42" t="n">
-        <v>136.5264853742962</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5264853742962</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="H42" t="n">
-        <v>136.5264853742962</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="I42" t="n">
-        <v>28.05335594657065</v>
+        <v>70.17823206518318</v>
       </c>
       <c r="J42" t="n">
         <v>28.05335594657065</v>
       </c>
       <c r="K42" t="n">
-        <v>65.9006595815417</v>
+        <v>65.90065958154167</v>
       </c>
       <c r="L42" t="n">
         <v>183.0775723007321</v>
       </c>
       <c r="M42" t="n">
-        <v>364.5721667835671</v>
+        <v>364.572166783567</v>
       </c>
       <c r="N42" t="n">
-        <v>569.2902726952216</v>
+        <v>569.2902726952213</v>
       </c>
       <c r="O42" t="n">
-        <v>700.8202623156903</v>
+        <v>700.8202623156901</v>
       </c>
       <c r="P42" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="Q42" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="R42" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="S42" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="T42" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="U42" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="V42" t="n">
-        <v>784.3081731287233</v>
+        <v>541.2284550323571</v>
       </c>
       <c r="W42" t="n">
-        <v>755.2383767008578</v>
+        <v>515.3269195131592</v>
       </c>
       <c r="X42" t="n">
-        <v>535.7303823175541</v>
+        <v>295.8189251298555</v>
       </c>
       <c r="Y42" t="n">
-        <v>310.0896892528817</v>
+        <v>70.17823206518318</v>
       </c>
     </row>
     <row r="43">
@@ -7543,67 +7543,67 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.20057089117525</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="C43" t="n">
-        <v>41.20057089117525</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="D43" t="n">
-        <v>41.20057089117525</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="E43" t="n">
-        <v>41.20057089117525</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="F43" t="n">
-        <v>41.20057089117525</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="G43" t="n">
-        <v>112.8376441238941</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="H43" t="n">
-        <v>112.8376441238941</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8376441238941</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="J43" t="n">
-        <v>112.8376441238941</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="K43" t="n">
-        <v>112.8376441238941</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="L43" t="n">
-        <v>112.8376441238941</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="M43" t="n">
-        <v>112.8376441238941</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="N43" t="n">
-        <v>112.8376441238941</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="O43" t="n">
-        <v>112.8376441238941</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="P43" t="n">
-        <v>112.8376441238941</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="Q43" t="n">
-        <v>112.8376441238941</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="R43" t="n">
-        <v>112.8376441238941</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="S43" t="n">
-        <v>112.8376441238941</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="T43" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="U43" t="n">
-        <v>81.88729074230199</v>
+        <v>81.88729074230193</v>
       </c>
       <c r="V43" t="n">
-        <v>77.79946067013603</v>
+        <v>77.799460670136</v>
       </c>
       <c r="W43" t="n">
         <v>28.05335594657065</v>
@@ -7612,7 +7612,7 @@
         <v>28.05335594657065</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.20057089117525</v>
+        <v>28.05335594657065</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.1122023226573</v>
+        <v>818.1122023226574</v>
       </c>
       <c r="C44" t="n">
         <v>707.8663094255128</v>
@@ -7631,10 +7631,10 @@
         <v>610.17934353741</v>
       </c>
       <c r="E44" t="n">
-        <v>478.4451529832373</v>
+        <v>478.4451529832375</v>
       </c>
       <c r="F44" t="n">
-        <v>314.6702174004011</v>
+        <v>314.6702174004013</v>
       </c>
       <c r="G44" t="n">
         <v>135.0970194299014</v>
@@ -7646,37 +7646,37 @@
         <v>28.05335594657065</v>
       </c>
       <c r="J44" t="n">
-        <v>190.5770209657086</v>
+        <v>190.5770209657085</v>
       </c>
       <c r="K44" t="n">
         <v>422.3977245625135</v>
       </c>
       <c r="L44" t="n">
-        <v>468.9066510219811</v>
+        <v>523.6807897072542</v>
       </c>
       <c r="M44" t="n">
-        <v>549.5327527033946</v>
+        <v>842.9583341675433</v>
       </c>
       <c r="N44" t="n">
-        <v>679.3951716702866</v>
+        <v>918.0466144491617</v>
       </c>
       <c r="O44" t="n">
-        <v>952.0409895183484</v>
+        <v>952.0409895183479</v>
       </c>
       <c r="P44" t="n">
         <v>1175.558272315706</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.250079846878</v>
+        <v>1325.250079846877</v>
       </c>
       <c r="R44" t="n">
-        <v>1370.884438216134</v>
+        <v>1370.884438216133</v>
       </c>
       <c r="S44" t="n">
-        <v>1384.263455578412</v>
+        <v>1384.263455578411</v>
       </c>
       <c r="T44" t="n">
-        <v>1402.667797328533</v>
+        <v>1402.667797328532</v>
       </c>
       <c r="U44" t="n">
         <v>1393.487406828597</v>
@@ -7691,7 +7691,7 @@
         <v>1095.131071989599</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.4810679436954</v>
+        <v>952.4810679436955</v>
       </c>
     </row>
     <row r="45">
@@ -7701,13 +7701,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>28.05335594657065</v>
+        <v>551.8089503311608</v>
       </c>
       <c r="C45" t="n">
-        <v>28.05335594657065</v>
+        <v>362.3966760641244</v>
       </c>
       <c r="D45" t="n">
-        <v>28.05335594657065</v>
+        <v>201.6165598251562</v>
       </c>
       <c r="E45" t="n">
         <v>28.05335594657065</v>
@@ -7728,49 +7728,49 @@
         <v>28.05335594657065</v>
       </c>
       <c r="K45" t="n">
-        <v>65.9006595815417</v>
+        <v>65.90065958154167</v>
       </c>
       <c r="L45" t="n">
         <v>183.0775723007321</v>
       </c>
       <c r="M45" t="n">
-        <v>364.5721667835671</v>
+        <v>364.572166783567</v>
       </c>
       <c r="N45" t="n">
-        <v>569.2902726952216</v>
+        <v>569.2902726952213</v>
       </c>
       <c r="O45" t="n">
-        <v>700.8202623156903</v>
+        <v>700.8202623156901</v>
       </c>
       <c r="P45" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="Q45" t="n">
-        <v>784.3081731287233</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="R45" t="n">
-        <v>648.1820503285086</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="S45" t="n">
-        <v>648.1820503285086</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="T45" t="n">
-        <v>648.1820503285086</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="U45" t="n">
-        <v>648.1820503285086</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="V45" t="n">
-        <v>648.1820503285086</v>
+        <v>784.3081731287231</v>
       </c>
       <c r="W45" t="n">
-        <v>473.2020433945466</v>
+        <v>758.4066376095251</v>
       </c>
       <c r="X45" t="n">
-        <v>253.694049011243</v>
+        <v>758.4066376095251</v>
       </c>
       <c r="Y45" t="n">
-        <v>28.05335594657065</v>
+        <v>730.3448032580959</v>
       </c>
     </row>
     <row r="46">
@@ -7810,37 +7810,37 @@
         <v>28.05335594657065</v>
       </c>
       <c r="L46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="M46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="N46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="O46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="P46" t="n">
-        <v>129.9625702815896</v>
+        <v>28.05335594657065</v>
       </c>
       <c r="Q46" t="n">
-        <v>129.9625702815896</v>
+        <v>75.60894755720591</v>
       </c>
       <c r="R46" t="n">
-        <v>129.9625702815896</v>
+        <v>112.8376441238939</v>
       </c>
       <c r="S46" t="n">
-        <v>129.9625702815896</v>
+        <v>112.8376441238939</v>
       </c>
       <c r="T46" t="n">
-        <v>129.9625702815896</v>
+        <v>129.9625702815895</v>
       </c>
       <c r="U46" t="n">
-        <v>81.88729074230199</v>
+        <v>81.88729074230193</v>
       </c>
       <c r="V46" t="n">
-        <v>77.79946067013603</v>
+        <v>77.799460670136</v>
       </c>
       <c r="W46" t="n">
         <v>28.05335594657065</v>
@@ -8067,10 +8067,10 @@
         <v>176.6027710248758</v>
       </c>
       <c r="N3" t="n">
-        <v>163.4361383816801</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O3" t="n">
-        <v>177.037405250518</v>
+        <v>177.1666678622357</v>
       </c>
       <c r="P3" t="n">
         <v>166.6480266854964</v>
@@ -8298,7 +8298,7 @@
         <v>168.166555548718</v>
       </c>
       <c r="L6" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M6" t="n">
         <v>176.6027710248758</v>
@@ -8307,10 +8307,10 @@
         <v>163.4361383816801</v>
       </c>
       <c r="O6" t="n">
-        <v>177.1666678622357</v>
+        <v>177.037405250518</v>
       </c>
       <c r="P6" t="n">
-        <v>166.5187640737787</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q6" t="n">
         <v>136.1300824528302</v>
@@ -8535,16 +8535,16 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>169.2041989925474</v>
+        <v>172.5532127625713</v>
       </c>
       <c r="M9" t="n">
-        <v>173.4035213848624</v>
+        <v>176.9203908159872</v>
       </c>
       <c r="N9" t="n">
-        <v>163.7537581727915</v>
+        <v>160.4047444027676</v>
       </c>
       <c r="O9" t="n">
-        <v>177.484287653347</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
         <v>166.9656464766077</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>196.2738526071049</v>
+        <v>196.2738526071048</v>
       </c>
       <c r="C11" t="n">
         <v>172.3921096104503</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>17.14513627958219</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,16 +23312,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>56.04806696513605</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>143.0663958384235</v>
       </c>
       <c r="W11" t="n">
         <v>160.0830760550384</v>
       </c>
       <c r="X11" t="n">
-        <v>181.9693265239777</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>204.4721796477214</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>196.2738526071048</v>
+        <v>196.2738526071049</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.3921096104503</v>
       </c>
       <c r="D14" t="n">
-        <v>159.9587718714988</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.6655242909077</v>
+        <v>5.427738874355413</v>
       </c>
       <c r="F14" t="n">
-        <v>225.385861869285</v>
+        <v>132.9456551292704</v>
       </c>
       <c r="G14" t="n">
-        <v>148.3582926995723</v>
+        <v>241.0261416330725</v>
       </c>
       <c r="H14" t="n">
-        <v>169.2219024907745</v>
+        <v>169.2219024907746</v>
       </c>
       <c r="I14" t="n">
-        <v>63.24867564227711</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>17.15336415818054</v>
       </c>
       <c r="S14" t="n">
-        <v>49.73451669048097</v>
+        <v>49.73451669048102</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.33726223721348</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>143.0663958384235</v>
       </c>
       <c r="W14" t="n">
         <v>160.0830760550384</v>
       </c>
       <c r="X14" t="n">
-        <v>181.9693265239776</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.23439423116912</v>
+        <v>204.4721796477214</v>
       </c>
     </row>
     <row r="15">
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375037.5591806386</v>
+        <v>375037.5591806387</v>
       </c>
       <c r="C2" t="n">
-        <v>375037.5591806388</v>
+        <v>375037.5591806387</v>
       </c>
       <c r="D2" t="n">
         <v>375048.3042581721</v>
       </c>
       <c r="E2" t="n">
-        <v>322665.7234489726</v>
+        <v>322665.7234489723</v>
       </c>
       <c r="F2" t="n">
         <v>322665.7234489726</v>
@@ -26332,28 +26332,28 @@
         <v>375580.3832648779</v>
       </c>
       <c r="I2" t="n">
-        <v>375580.3832648778</v>
+        <v>375580.3832648779</v>
       </c>
       <c r="J2" t="n">
         <v>375580.3832648782</v>
       </c>
       <c r="K2" t="n">
-        <v>375580.3832648781</v>
+        <v>375580.3832648782</v>
       </c>
       <c r="L2" t="n">
         <v>375580.3832648777</v>
       </c>
       <c r="M2" t="n">
-        <v>375580.3832648775</v>
+        <v>375580.3832648776</v>
       </c>
       <c r="N2" t="n">
-        <v>375580.3832648776</v>
+        <v>375580.3832648777</v>
       </c>
       <c r="O2" t="n">
-        <v>375580.3832648778</v>
+        <v>375580.3832648777</v>
       </c>
       <c r="P2" t="n">
-        <v>375580.3832648776</v>
+        <v>375580.3832648777</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>278414.6253386763</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95781.9596213599</v>
+        <v>95781.95962135991</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>95847.69929524498</v>
       </c>
       <c r="M3" t="n">
-        <v>45831.79590713835</v>
+        <v>45831.7959071383</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72106.10470368367</v>
+        <v>72106.10470368368</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26433,7 +26433,7 @@
         <v>337932.2569579341</v>
       </c>
       <c r="H4" t="n">
-        <v>337932.256957934</v>
+        <v>337932.2569579341</v>
       </c>
       <c r="I4" t="n">
         <v>337932.2569579341</v>
@@ -26442,16 +26442,16 @@
         <v>338620.7243128588</v>
       </c>
       <c r="K4" t="n">
-        <v>338620.7243128587</v>
+        <v>338620.7243128588</v>
       </c>
       <c r="L4" t="n">
         <v>338619.2559728171</v>
       </c>
       <c r="M4" t="n">
-        <v>337810.8829795381</v>
+        <v>337810.8829795382</v>
       </c>
       <c r="N4" t="n">
-        <v>337810.8829795381</v>
+        <v>337810.8829795382</v>
       </c>
       <c r="O4" t="n">
         <v>338183.5397274416</v>
@@ -26482,16 +26482,16 @@
         <v>28591.63158141764</v>
       </c>
       <c r="G5" t="n">
-        <v>38656.99853567778</v>
+        <v>38656.99853567777</v>
       </c>
       <c r="H5" t="n">
-        <v>38656.99853567778</v>
+        <v>38656.99853567777</v>
       </c>
       <c r="I5" t="n">
-        <v>38656.99853567778</v>
+        <v>38656.99853567777</v>
       </c>
       <c r="J5" t="n">
-        <v>47433.12923790394</v>
+        <v>47433.12923790392</v>
       </c>
       <c r="K5" t="n">
         <v>47433.12923790392</v>
@@ -26500,10 +26500,10 @@
         <v>47420.72629040915</v>
       </c>
       <c r="M5" t="n">
-        <v>41005.98616114169</v>
+        <v>41005.98616114168</v>
       </c>
       <c r="N5" t="n">
-        <v>41005.98616114169</v>
+        <v>41005.98616114168</v>
       </c>
       <c r="O5" t="n">
         <v>43784.57766005555</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-42201.32724938086</v>
+        <v>-42204.52033222927</v>
       </c>
       <c r="C6" t="n">
-        <v>-41129.18511227045</v>
+        <v>-41132.37819511903</v>
       </c>
       <c r="D6" t="n">
-        <v>-41192.75028661816</v>
+        <v>-41195.8801631282</v>
       </c>
       <c r="E6" t="n">
-        <v>-251367.8600761794</v>
+        <v>-251679.1227809792</v>
       </c>
       <c r="F6" t="n">
-        <v>27046.76526249688</v>
+        <v>26735.50255769744</v>
       </c>
       <c r="G6" t="n">
-        <v>-96790.83185009389</v>
+        <v>-96790.83185009399</v>
       </c>
       <c r="H6" t="n">
-        <v>-1008.87222873389</v>
+        <v>-1008.872228733941</v>
       </c>
       <c r="I6" t="n">
-        <v>-1008.872228734064</v>
+        <v>-1008.872228733999</v>
       </c>
       <c r="J6" t="n">
         <v>-154524.3341218522</v>
       </c>
       <c r="K6" t="n">
-        <v>-10473.4702858845</v>
+        <v>-10473.47028588451</v>
       </c>
       <c r="L6" t="n">
-        <v>-106307.2982935935</v>
+        <v>-106307.2982935936</v>
       </c>
       <c r="M6" t="n">
         <v>-49068.28178294058</v>
       </c>
       <c r="N6" t="n">
-        <v>-3236.485875802144</v>
+        <v>-3236.485875802136</v>
       </c>
       <c r="O6" t="n">
-        <v>-78493.83882630298</v>
+        <v>-78493.83882630321</v>
       </c>
       <c r="P6" t="n">
-        <v>-6387.734122619571</v>
+        <v>-6387.734122619513</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>213.5565004251504</v>
       </c>
       <c r="K2" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="L2" t="n">
         <v>213.6386750175067</v>
@@ -26811,7 +26811,7 @@
         <v>188.2377854165523</v>
       </c>
       <c r="J4" t="n">
-        <v>448.7083432905933</v>
+        <v>448.7083432905932</v>
       </c>
       <c r="K4" t="n">
         <v>448.7083432905931</v>
@@ -26826,10 +26826,10 @@
         <v>263.6698075140544</v>
       </c>
       <c r="O4" t="n">
-        <v>350.6669493321332</v>
+        <v>350.6669493321331</v>
       </c>
       <c r="P4" t="n">
-        <v>350.6669493321332</v>
+        <v>350.6669493321331</v>
       </c>
     </row>
   </sheetData>
@@ -26917,7 +26917,7 @@
         <v>177.8133877707285</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>119.7274495266999</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.82905089845048</v>
+        <v>93.8290508984505</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>119.8096241190562</v>
       </c>
       <c r="M2" t="n">
-        <v>57.28974488392294</v>
+        <v>57.28974488392288</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.96269441002647</v>
+        <v>63.96269441002653</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>86.99714181807883</v>
+        <v>86.99714181807872</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>177.8133877707285</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>119.7274495266999</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>93.82905089845048</v>
+        <v>93.8290508984505</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27500,13 +27500,13 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>31.82978284919219</v>
+        <v>31.44843229210258</v>
       </c>
       <c r="R3" t="n">
-        <v>148.2309527983001</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S3" t="n">
-        <v>195.63287444794</v>
+        <v>192.4336248079265</v>
       </c>
       <c r="T3" t="n">
         <v>215.8480604164874</v>
@@ -27515,13 +27515,13 @@
         <v>237.2423862021824</v>
       </c>
       <c r="V3" t="n">
-        <v>237.4496712753888</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W3" t="n">
-        <v>263.5053339369981</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X3" t="n">
-        <v>214.1136647994571</v>
+        <v>214.4950153565467</v>
       </c>
       <c r="Y3" t="n">
         <v>223.3842861340256</v>
@@ -27622,7 +27622,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E5" t="n">
-        <v>371.4789120616362</v>
+        <v>371.6088275148272</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27673,7 +27673,7 @@
         <v>250.1830790232068</v>
       </c>
       <c r="V5" t="n">
-        <v>321.009699062343</v>
+        <v>320.879783609152</v>
       </c>
       <c r="W5" t="n">
         <v>337.8964638257669</v>
@@ -27695,10 +27695,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C6" t="n">
-        <v>187.5181515243659</v>
+        <v>184.700252441442</v>
       </c>
       <c r="D6" t="n">
-        <v>159.1723150765785</v>
+        <v>155.9730654365651</v>
       </c>
       <c r="E6" t="n">
         <v>171.8275718397997</v>
@@ -27713,10 +27713,10 @@
         <v>127.8372169228968</v>
       </c>
       <c r="I6" t="n">
-        <v>111.6565698077035</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J6" t="n">
-        <v>69.83566399273495</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>31.44843229210258</v>
       </c>
       <c r="R6" t="n">
-        <v>145.4130537153763</v>
+        <v>145.0317031582867</v>
       </c>
       <c r="S6" t="n">
         <v>195.63287444794</v>
@@ -27938,10 +27938,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>168.7299132448649</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F9" t="n">
-        <v>158.8234391199283</v>
+        <v>155.7257805249936</v>
       </c>
       <c r="G9" t="n">
         <v>148.9622183950918</v>
@@ -28114,7 +28114,7 @@
         <v>177.8133877707285</v>
       </c>
       <c r="K11" t="n">
-        <v>8.343387212085796</v>
+        <v>6.899736547546077</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,7 +28123,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1.443650664539845</v>
       </c>
       <c r="O11" t="n">
         <v>153.9000328214146</v>
@@ -28178,13 +28178,13 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>86.83733106057446</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7453302346265</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7425338994548</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -28214,10 +28214,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S12" t="n">
-        <v>177.8133877707285</v>
+        <v>96.80495203861683</v>
       </c>
       <c r="T12" t="n">
         <v>177.8133877707285</v>
@@ -28269,28 +28269,28 @@
         <v>164.871265903193</v>
       </c>
       <c r="J13" t="n">
-        <v>177.8133877707285</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K13" t="n">
-        <v>177.8133877707285</v>
+        <v>67.10067129221696</v>
       </c>
       <c r="L13" t="n">
-        <v>32.24227658594126</v>
+        <v>112.798906267584</v>
       </c>
       <c r="M13" t="n">
         <v>177.8133877707285</v>
       </c>
       <c r="N13" t="n">
-        <v>16.61326724243495</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="O13" t="n">
+        <v>37.56488603590384</v>
+      </c>
+      <c r="P13" t="n">
         <v>177.8133877707285</v>
       </c>
-      <c r="P13" t="n">
-        <v>60.53270501093837</v>
-      </c>
       <c r="Q13" t="n">
-        <v>177.8133877707285</v>
+        <v>127.2679355889264</v>
       </c>
       <c r="R13" t="n">
         <v>177.8133877707285</v>
@@ -28351,7 +28351,7 @@
         <v>177.8133877707285</v>
       </c>
       <c r="K14" t="n">
-        <v>8.343387212085768</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -28360,16 +28360,16 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.3910376573418</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9000328214146</v>
+        <v>122.5205224406029</v>
       </c>
       <c r="P14" t="n">
-        <v>177.8133877707285</v>
+        <v>15.28703028436155</v>
       </c>
       <c r="Q14" t="n">
-        <v>177.8133877707285</v>
+        <v>89.85821742192289</v>
       </c>
       <c r="R14" t="n">
         <v>177.8133877707285</v>
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>33.46241590189726</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="D15" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>171.8275718397997</v>
@@ -28421,13 +28421,13 @@
         <v>148.7453302346265</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7425338994548</v>
+        <v>60.89862947619567</v>
       </c>
       <c r="I15" t="n">
         <v>107.3883981334483</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,7 +28448,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.962098501482266</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.7648615722126</v>
@@ -28472,7 +28472,7 @@
         <v>177.8133877707285</v>
       </c>
       <c r="Y15" t="n">
-        <v>177.8133877707285</v>
+        <v>35.14650071747334</v>
       </c>
     </row>
     <row r="16">
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>177.8133877707285</v>
       </c>
       <c r="G16" t="n">
         <v>168.7013833799563</v>
@@ -28506,13 +28506,13 @@
         <v>164.871265903193</v>
       </c>
       <c r="J16" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K16" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L16" t="n">
-        <v>62.25345408578197</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M16" t="n">
         <v>177.8133877707285</v>
@@ -28521,13 +28521,13 @@
         <v>177.8133877707285</v>
       </c>
       <c r="O16" t="n">
-        <v>37.56488603590383</v>
+        <v>129.7282253562948</v>
       </c>
       <c r="P16" t="n">
-        <v>177.8133877707285</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q16" t="n">
-        <v>177.8133877707285</v>
+        <v>127.2679355889264</v>
       </c>
       <c r="R16" t="n">
         <v>177.8133877707285</v>
@@ -28582,13 +28582,13 @@
         <v>297.5408372974284</v>
       </c>
       <c r="I17" t="n">
-        <v>297.5408372974284</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="J17" t="n">
-        <v>188.9577671328746</v>
+        <v>265.1345306284085</v>
       </c>
       <c r="K17" t="n">
-        <v>6.899736547546048</v>
+        <v>6.899736547546077</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.28703028436152</v>
+        <v>15.28703028436155</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.0960028384751</v>
+        <v>113.3360623146809</v>
       </c>
       <c r="R17" t="n">
         <v>297.5408372974284</v>
       </c>
       <c r="S17" t="n">
-        <v>227.5479044612095</v>
+        <v>297.5408372974284</v>
       </c>
       <c r="T17" t="n">
-        <v>222.4718192209641</v>
+        <v>297.5408372974284</v>
       </c>
       <c r="U17" t="n">
         <v>297.5408372974284</v>
@@ -28640,7 +28640,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>187.5181515243659</v>
@@ -28658,10 +28658,10 @@
         <v>148.7453302346265</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7425338994548</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R18" t="n">
         <v>134.7648615722126</v>
@@ -28700,13 +28700,13 @@
         <v>48.99033182770472</v>
       </c>
       <c r="V18" t="n">
-        <v>52.41113549884997</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>79.56119218856878</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>217.3129144394706</v>
+        <v>30.07426929666559</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28743,25 +28743,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J19" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K19" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L19" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M19" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N19" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O19" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P19" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2679355889264</v>
@@ -28819,13 +28819,13 @@
         <v>297.5408372974284</v>
       </c>
       <c r="I20" t="n">
-        <v>241.0620634130056</v>
+        <v>297.5408372974284</v>
       </c>
       <c r="J20" t="n">
-        <v>175.4436081810786</v>
+        <v>76.89674521185623</v>
       </c>
       <c r="K20" t="n">
-        <v>6.899736547546048</v>
+        <v>6.899736547546077</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,10 +28840,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.28703028436152</v>
+        <v>15.28703028436155</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.0960028384752</v>
+        <v>245.0950738468104</v>
       </c>
       <c r="R20" t="n">
         <v>297.5408372974284</v>
@@ -28852,7 +28852,7 @@
         <v>297.5408372974284</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4718192209641</v>
+        <v>297.5408372974284</v>
       </c>
       <c r="U20" t="n">
         <v>297.5408372974284</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28886,7 +28886,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
         <v>158.8234391199283</v>
@@ -28898,10 +28898,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I21" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.54373878807819</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,10 +28928,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>191.6042719936817</v>
+        <v>3.366486577129393</v>
       </c>
       <c r="T21" t="n">
-        <v>214.973848927594</v>
+        <v>162.595319111364</v>
       </c>
       <c r="U21" t="n">
         <v>237.228117244257</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>214.7341976601679</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>29.07512902291833</v>
       </c>
       <c r="Y21" t="n">
-        <v>35.14650071747332</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="22">
@@ -28980,25 +28980,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J22" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K22" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L22" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M22" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N22" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O22" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P22" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2679355889264</v>
@@ -29062,7 +29062,7 @@
         <v>76.89674521185623</v>
       </c>
       <c r="K23" t="n">
-        <v>6.899736547546048</v>
+        <v>6.899736547546077</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,13 +29077,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.28703028436152</v>
+        <v>84.86018666121622</v>
       </c>
       <c r="Q23" t="n">
-        <v>245.0950738468105</v>
+        <v>278.0960028384752</v>
       </c>
       <c r="R23" t="n">
-        <v>297.5408372974284</v>
+        <v>194.966751928909</v>
       </c>
       <c r="S23" t="n">
         <v>297.5408372974284</v>
@@ -29114,7 +29114,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>187.5181515243659</v>
@@ -29123,22 +29123,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7453302346265</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>125.7425338994548</v>
+        <v>97.20073172029548</v>
       </c>
       <c r="I24" t="n">
         <v>107.3883981334483</v>
       </c>
       <c r="J24" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R24" t="n">
         <v>134.7648615722126</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>78.46679816045926</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>29.07512902291828</v>
+        <v>29.07512902291833</v>
       </c>
       <c r="Y24" t="n">
-        <v>48.136329663856</v>
+        <v>35.14650071747334</v>
       </c>
     </row>
     <row r="25">
@@ -29217,25 +29217,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J25" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K25" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L25" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M25" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N25" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O25" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P25" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2679355889264</v>
@@ -29354,13 +29354,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -29375,7 +29375,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J27" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R27" t="n">
         <v>134.7648615722126</v>
       </c>
       <c r="S27" t="n">
-        <v>191.6042719936817</v>
+        <v>147.7621116404387</v>
       </c>
       <c r="T27" t="n">
         <v>213.5565004251504</v>
@@ -29411,13 +29411,13 @@
         <v>213.5565004251504</v>
       </c>
       <c r="V27" t="n">
-        <v>101.9470625857722</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="W27" t="n">
-        <v>213.5565004251504</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>213.5565004251504</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>213.5565004251504</v>
@@ -29454,31 +29454,31 @@
         <v>164.871265903193</v>
       </c>
       <c r="J28" t="n">
-        <v>120.2826251961398</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="K28" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L28" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M28" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N28" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O28" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P28" t="n">
-        <v>204.3362120940841</v>
+        <v>100.9631558461733</v>
       </c>
       <c r="Q28" t="n">
         <v>213.5565004251504</v>
       </c>
       <c r="R28" t="n">
-        <v>203.45731940625</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="S28" t="n">
         <v>213.5565004251504</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="C29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="D29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="E29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="F29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="G29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="H29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="I29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="J29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="K29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="L29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="M29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="N29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="O29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="P29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="Q29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="R29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="S29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="T29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="U29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="V29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="W29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="X29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="Y29" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
     </row>
     <row r="30">
@@ -29591,16 +29591,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7453302346265</v>
@@ -29612,7 +29612,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J30" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R30" t="n">
         <v>134.7648615722126</v>
@@ -29642,22 +29642,22 @@
         <v>191.6042719936817</v>
       </c>
       <c r="T30" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="U30" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="V30" t="n">
-        <v>176.6764385733896</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="X30" t="n">
-        <v>213.5565004251503</v>
+        <v>102.2959385424223</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>213.5565004251504</v>
       </c>
     </row>
     <row r="31">
@@ -29691,52 +29691,52 @@
         <v>164.871265903193</v>
       </c>
       <c r="J31" t="n">
-        <v>120.2826251961398</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="K31" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L31" t="n">
-        <v>32.24227658594126</v>
+        <v>74.65324393093653</v>
       </c>
       <c r="M31" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N31" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O31" t="n">
-        <v>183.3489096288106</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P31" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="R31" t="n">
-        <v>203.45731940625</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="S31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="T31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="U31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="V31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="W31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="X31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.5565004251503</v>
+        <v>213.5565004251504</v>
       </c>
     </row>
     <row r="32">
@@ -29788,10 +29788,10 @@
         <v>213.6386750175067</v>
       </c>
       <c r="P32" t="n">
-        <v>211.6414576447271</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.6386750175067</v>
+        <v>211.6414576447266</v>
       </c>
       <c r="R32" t="n">
         <v>213.6386750175067</v>
@@ -29825,16 +29825,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>64.99688496079978</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
@@ -29849,7 +29849,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J33" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,7 +29870,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R33" t="n">
         <v>134.7648615722126</v>
@@ -29885,13 +29885,13 @@
         <v>213.6386750175067</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="X33" t="n">
-        <v>10.64437717491001</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Y33" t="n">
         <v>213.6386750175067</v>
@@ -29907,16 +29907,16 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>182.8125165438982</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D34" t="n">
-        <v>213.6386750175067</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>213.6386750175067</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
-        <v>213.6386750175067</v>
+        <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
         <v>168.7013833799563</v>
@@ -29928,25 +29928,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J34" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K34" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L34" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M34" t="n">
-        <v>25.31224314158861</v>
+        <v>101.7114435683228</v>
       </c>
       <c r="N34" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O34" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P34" t="n">
-        <v>58.55218850117774</v>
+        <v>213.6386750175067</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2679355889264</v>
@@ -30010,10 +30010,10 @@
         <v>270.9284199014296</v>
       </c>
       <c r="K35" t="n">
-        <v>6.899736547546048</v>
+        <v>218.7771327047697</v>
       </c>
       <c r="L35" t="n">
-        <v>211.8773961572235</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -30025,7 +30025,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.28703028436152</v>
+        <v>15.28703028436155</v>
       </c>
       <c r="Q35" t="n">
         <v>270.9284199014296</v>
@@ -30062,19 +30062,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>157.9434417360854</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7453302346265</v>
@@ -30086,7 +30086,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R36" t="n">
         <v>134.7648615722126</v>
@@ -30119,16 +30119,16 @@
         <v>214.973848927594</v>
       </c>
       <c r="U36" t="n">
-        <v>237.228117244257</v>
+        <v>210.1674911028533</v>
       </c>
       <c r="V36" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>3.034776062957235</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30165,28 +30165,28 @@
         <v>164.871265903193</v>
       </c>
       <c r="J37" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K37" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L37" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M37" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N37" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O37" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P37" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q37" t="n">
-        <v>127.2679355889264</v>
+        <v>165.1318856382851</v>
       </c>
       <c r="R37" t="n">
         <v>203.45731940625</v>
@@ -30195,7 +30195,7 @@
         <v>235.4486480391346</v>
       </c>
       <c r="T37" t="n">
-        <v>261.6281082525708</v>
+        <v>223.7641582032121</v>
       </c>
       <c r="U37" t="n">
         <v>270.9284199014296</v>
@@ -30247,7 +30247,7 @@
         <v>270.9284199014296</v>
       </c>
       <c r="K38" t="n">
-        <v>270.5695440616004</v>
+        <v>6.899736547546077</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30262,10 +30262,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.28703028436152</v>
+        <v>227.1644264415855</v>
       </c>
       <c r="Q38" t="n">
-        <v>219.1360085445987</v>
+        <v>270.9284199014296</v>
       </c>
       <c r="R38" t="n">
         <v>270.9284199014296</v>
@@ -30299,16 +30299,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
         <v>158.8234391199283</v>
@@ -30320,10 +30320,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I39" t="n">
-        <v>107.3883981334483</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R39" t="n">
         <v>134.7648615722126</v>
@@ -30356,16 +30356,16 @@
         <v>214.973848927594</v>
       </c>
       <c r="U39" t="n">
-        <v>237.228117244257</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>103.2777508597883</v>
       </c>
       <c r="X39" t="n">
-        <v>163.8891782675495</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>215.4808707143268</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C40" t="n">
         <v>166.4571809719723</v>
@@ -30390,7 +30390,7 @@
         <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
-        <v>138.9268822184467</v>
+        <v>176.7908322678053</v>
       </c>
       <c r="G40" t="n">
         <v>168.7013833799563</v>
@@ -30402,25 +30402,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J40" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K40" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L40" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M40" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N40" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O40" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P40" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2679355889264</v>
@@ -30484,19 +30484,19 @@
         <v>241.0620634130056</v>
       </c>
       <c r="K41" t="n">
+        <v>55.32741281340736</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.0620634130056</v>
       </c>
-      <c r="L41" t="n">
-        <v>55.32741281340765</v>
-      </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="O41" t="n">
-        <v>241.0620634130056</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>241.0620634130056</v>
@@ -30545,7 +30545,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
@@ -30557,10 +30557,10 @@
         <v>125.7425338994548</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.3883981334483</v>
       </c>
       <c r="J42" t="n">
-        <v>52.54373878807819</v>
+        <v>10.8401114306518</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R42" t="n">
         <v>134.7648615722126</v>
@@ -30596,10 +30596,10 @@
         <v>237.228117244257</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>237.9254851134247</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -30630,7 +30630,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>241.0620634130056</v>
+        <v>168.7013833799563</v>
       </c>
       <c r="H43" t="n">
         <v>165.8298073532316</v>
@@ -30639,25 +30639,25 @@
         <v>164.871265903193</v>
       </c>
       <c r="J43" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K43" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L43" t="n">
-        <v>32.24227658594126</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M43" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N43" t="n">
-        <v>16.61326724243495</v>
+        <v>119.5518675808379</v>
       </c>
       <c r="O43" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P43" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2679355889264</v>
@@ -30669,7 +30669,7 @@
         <v>235.4486480391346</v>
       </c>
       <c r="T43" t="n">
-        <v>241.0620634130056</v>
+        <v>223.7641582032121</v>
       </c>
       <c r="U43" t="n">
         <v>241.0620634130056</v>
@@ -30684,7 +30684,7 @@
         <v>221.9194554082425</v>
       </c>
       <c r="Y43" t="n">
-        <v>230.4212879097286</v>
+        <v>217.1412728141684</v>
       </c>
     </row>
     <row r="44">
@@ -30724,16 +30724,16 @@
         <v>241.0620634130056</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>55.32741281340721</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="N44" t="n">
-        <v>55.32741281340762</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>241.0620634130056</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>241.0620634130056</v>
@@ -30773,16 +30773,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>158.8234391199283</v>
@@ -30797,7 +30797,7 @@
         <v>107.3883981334483</v>
       </c>
       <c r="J45" t="n">
-        <v>52.54373878807819</v>
+        <v>52.5437387880782</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,10 +30818,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.962098501482266</v>
+        <v>6.962098501482281</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7648615722126</v>
       </c>
       <c r="S45" t="n">
         <v>191.6042719936817</v>
@@ -30836,13 +30836,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>93.4743767123893</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>195.6030701261107</v>
       </c>
     </row>
     <row r="46">
@@ -30876,37 +30876,37 @@
         <v>164.871265903193</v>
       </c>
       <c r="J46" t="n">
-        <v>120.2826251961398</v>
+        <v>120.2826251961399</v>
       </c>
       <c r="K46" t="n">
         <v>67.10067129221696</v>
       </c>
       <c r="L46" t="n">
-        <v>135.1808769243443</v>
+        <v>32.24227658594127</v>
       </c>
       <c r="M46" t="n">
-        <v>25.31224314158861</v>
+        <v>25.31224314158862</v>
       </c>
       <c r="N46" t="n">
-        <v>16.61326724243495</v>
+        <v>16.61326724243496</v>
       </c>
       <c r="O46" t="n">
-        <v>37.56488603590383</v>
+        <v>37.56488603590384</v>
       </c>
       <c r="P46" t="n">
-        <v>58.55218850117774</v>
+        <v>58.55218850117775</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2679355889264</v>
+        <v>175.3038867107802</v>
       </c>
       <c r="R46" t="n">
-        <v>203.45731940625</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="S46" t="n">
         <v>235.4486480391346</v>
       </c>
       <c r="T46" t="n">
-        <v>223.7641582032121</v>
+        <v>241.0620634130056</v>
       </c>
       <c r="U46" t="n">
         <v>241.0620634130056</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H11" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I11" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J11" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K11" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L11" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M11" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N11" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O11" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P11" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R11" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T11" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H12" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I12" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J12" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K12" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L12" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M12" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N12" t="n">
         <v>37.86081558359626</v>
       </c>
       <c r="O12" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P12" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R12" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S12" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U12" t="n">
         <v>0.01426895792535414</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H13" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I13" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J13" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K13" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M13" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N13" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O13" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P13" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q13" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R13" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S13" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U13" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H14" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I14" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J14" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K14" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L14" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M14" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N14" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O14" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P14" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R14" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T14" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H15" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I15" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J15" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K15" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L15" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M15" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N15" t="n">
         <v>37.86081558359626</v>
       </c>
       <c r="O15" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P15" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R15" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S15" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U15" t="n">
         <v>0.01426895792535414</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H16" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I16" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J16" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K16" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M16" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N16" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O16" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P16" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q16" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R16" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S16" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U16" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H17" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I17" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J17" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K17" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L17" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M17" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N17" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O17" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P17" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R17" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S17" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T17" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H18" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I18" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J18" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K18" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L18" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M18" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N18" t="n">
         <v>37.86081558359626</v>
       </c>
       <c r="O18" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P18" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R18" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S18" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U18" t="n">
         <v>0.01426895792535414</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H19" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I19" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J19" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K19" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L19" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M19" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N19" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O19" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P19" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q19" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R19" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S19" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U19" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H20" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I20" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J20" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K20" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L20" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M20" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N20" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O20" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P20" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R20" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T20" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H21" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I21" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J21" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K21" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L21" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M21" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N21" t="n">
-        <v>37.86081558359621</v>
+        <v>37.86081558359626</v>
       </c>
       <c r="O21" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P21" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R21" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S21" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U21" t="n">
         <v>0.01426895792535414</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H22" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I22" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J22" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K22" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L22" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M22" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N22" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O22" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P22" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q22" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R22" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S22" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U22" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H23" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I23" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J23" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K23" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L23" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M23" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N23" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O23" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P23" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R23" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S23" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T23" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H24" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I24" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J24" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K24" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L24" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M24" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N24" t="n">
-        <v>37.86081558359632</v>
+        <v>37.86081558359626</v>
       </c>
       <c r="O24" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P24" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R24" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S24" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U24" t="n">
         <v>0.01426895792535414</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H25" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I25" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J25" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K25" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L25" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M25" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N25" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O25" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P25" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q25" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R25" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S25" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U25" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H26" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I26" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J26" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K26" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L26" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M26" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N26" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O26" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P26" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R26" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S26" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T26" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H27" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I27" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J27" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K27" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L27" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M27" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N27" t="n">
-        <v>56.40899573437167</v>
+        <v>56.40899573437164</v>
       </c>
       <c r="O27" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P27" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R27" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S27" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U27" t="n">
         <v>0.01426895792535414</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H28" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I28" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J28" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K28" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L28" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M28" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N28" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O28" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P28" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q28" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R28" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S28" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U28" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H29" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I29" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J29" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K29" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L29" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M29" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N29" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O29" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P29" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R29" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S29" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T29" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H30" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I30" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J30" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K30" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L30" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M30" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N30" t="n">
-        <v>56.40899573437167</v>
+        <v>56.40899573437164</v>
       </c>
       <c r="O30" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P30" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R30" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S30" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U30" t="n">
         <v>0.01426895792535414</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H31" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I31" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J31" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K31" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L31" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M31" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N31" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O31" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P31" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q31" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R31" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S31" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U31" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H32" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I32" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J32" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K32" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L32" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M32" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N32" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O32" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P32" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R32" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S32" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T32" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H33" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I33" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J33" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K33" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L33" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M33" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N33" t="n">
-        <v>56.40899573437167</v>
+        <v>56.40899573437164</v>
       </c>
       <c r="O33" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P33" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R33" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S33" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U33" t="n">
         <v>0.01426895792535414</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H34" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I34" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J34" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K34" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L34" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M34" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N34" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O34" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P34" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q34" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R34" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S34" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U34" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H35" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I35" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J35" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K35" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L35" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M35" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N35" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O35" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P35" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R35" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S35" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T35" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H36" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I36" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J36" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K36" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L36" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M36" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N36" t="n">
-        <v>56.40899573437167</v>
+        <v>56.40899573437164</v>
       </c>
       <c r="O36" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P36" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R36" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S36" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U36" t="n">
         <v>0.01426895792535414</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H37" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I37" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J37" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K37" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L37" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M37" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N37" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O37" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P37" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q37" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R37" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S37" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U37" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H38" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I38" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J38" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K38" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L38" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M38" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N38" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O38" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P38" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R38" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S38" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T38" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H39" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I39" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J39" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K39" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L39" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M39" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N39" t="n">
-        <v>56.40899573437167</v>
+        <v>56.40899573437164</v>
       </c>
       <c r="O39" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P39" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R39" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S39" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U39" t="n">
         <v>0.01426895792535414</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H40" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I40" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J40" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K40" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L40" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M40" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N40" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O40" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P40" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q40" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R40" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S40" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U40" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H41" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I41" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J41" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K41" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L41" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M41" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N41" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O41" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P41" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R41" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S41" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T41" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H42" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I42" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J42" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K42" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L42" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M42" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N42" t="n">
-        <v>56.40899573437167</v>
+        <v>56.40899573437164</v>
       </c>
       <c r="O42" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P42" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R42" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S42" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U42" t="n">
         <v>0.01426895792535414</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H43" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I43" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J43" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K43" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L43" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M43" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N43" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O43" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P43" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q43" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R43" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S43" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U43" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4053626908107303</v>
+        <v>0.4053626908107301</v>
       </c>
       <c r="H44" t="n">
-        <v>4.151420657265393</v>
+        <v>4.15142065726539</v>
       </c>
       <c r="I44" t="n">
-        <v>15.6277451374807</v>
+        <v>15.62774513748069</v>
       </c>
       <c r="J44" t="n">
-        <v>34.40465167919725</v>
+        <v>34.40465167919724</v>
       </c>
       <c r="K44" t="n">
-        <v>51.56365438121548</v>
+        <v>51.56365438121545</v>
       </c>
       <c r="L44" t="n">
-        <v>63.96927283011438</v>
+        <v>63.96927283011434</v>
       </c>
       <c r="M44" t="n">
-        <v>71.17814158281971</v>
+        <v>71.17814158281966</v>
       </c>
       <c r="N44" t="n">
-        <v>72.3298783280857</v>
+        <v>72.32987832808566</v>
       </c>
       <c r="O44" t="n">
-        <v>68.29905307133649</v>
+        <v>68.29905307133646</v>
       </c>
       <c r="P44" t="n">
-        <v>58.29166164194658</v>
+        <v>58.29166164194655</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.77461027728729</v>
+        <v>43.77461027728726</v>
       </c>
       <c r="R44" t="n">
-        <v>25.46336412663956</v>
+        <v>25.46336412663955</v>
       </c>
       <c r="S44" t="n">
-        <v>9.237202316849526</v>
+        <v>9.237202316849521</v>
       </c>
       <c r="T44" t="n">
-        <v>1.774475179023973</v>
+        <v>1.774475179023972</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03242901526485842</v>
+        <v>0.0324290152648584</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2168881604653829</v>
+        <v>0.2168881604653828</v>
       </c>
       <c r="H45" t="n">
-        <v>2.094683023441988</v>
+        <v>2.094683023441987</v>
       </c>
       <c r="I45" t="n">
-        <v>7.467421314268667</v>
+        <v>7.467421314268663</v>
       </c>
       <c r="J45" t="n">
-        <v>20.49117484467024</v>
+        <v>20.49117484467023</v>
       </c>
       <c r="K45" t="n">
-        <v>35.02268159585089</v>
+        <v>35.02268159585087</v>
       </c>
       <c r="L45" t="n">
-        <v>47.09231747297711</v>
+        <v>47.09231747297709</v>
       </c>
       <c r="M45" t="n">
-        <v>54.95451328984723</v>
+        <v>54.9545132898472</v>
       </c>
       <c r="N45" t="n">
-        <v>56.40899573437167</v>
+        <v>56.40899573437164</v>
       </c>
       <c r="O45" t="n">
-        <v>51.6032107051124</v>
+        <v>51.60321070511237</v>
       </c>
       <c r="P45" t="n">
-        <v>41.41612601027123</v>
+        <v>41.41612601027121</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.68558343063379</v>
+        <v>27.68558343063378</v>
       </c>
       <c r="R45" t="n">
-        <v>13.46609122608755</v>
+        <v>13.46609122608754</v>
       </c>
       <c r="S45" t="n">
-        <v>4.028602454258316</v>
+        <v>4.028602454258314</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8742114888933632</v>
+        <v>0.8742114888933628</v>
       </c>
       <c r="U45" t="n">
         <v>0.01426895792535414</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1818317479886658</v>
+        <v>0.1818317479886657</v>
       </c>
       <c r="H46" t="n">
-        <v>1.616649541208321</v>
+        <v>1.61664954120832</v>
       </c>
       <c r="I46" t="n">
-        <v>5.468176566786425</v>
+        <v>5.468176566786422</v>
       </c>
       <c r="J46" t="n">
         <v>12.85550458279867</v>
       </c>
       <c r="K46" t="n">
-        <v>21.12554308450135</v>
+        <v>21.12554308450134</v>
       </c>
       <c r="L46" t="n">
-        <v>27.03342187824219</v>
+        <v>27.03342187824218</v>
       </c>
       <c r="M46" t="n">
-        <v>28.50295300516877</v>
+        <v>28.50295300516875</v>
       </c>
       <c r="N46" t="n">
-        <v>27.82521648993831</v>
+        <v>27.82521648993829</v>
       </c>
       <c r="O46" t="n">
-        <v>25.70109107025252</v>
+        <v>25.70109107025251</v>
       </c>
       <c r="P46" t="n">
-        <v>21.99172341128372</v>
+        <v>21.99172341128371</v>
       </c>
       <c r="Q46" t="n">
         <v>15.22592937021455</v>
       </c>
       <c r="R46" t="n">
-        <v>8.175816595926737</v>
+        <v>8.175816595926731</v>
       </c>
       <c r="S46" t="n">
-        <v>3.168831462675203</v>
+        <v>3.168831462675201</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7769174686788447</v>
+        <v>0.7769174686788443</v>
       </c>
       <c r="U46" t="n">
-        <v>0.00991809534483633</v>
+        <v>0.009918095344836324</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34787,10 +34787,10 @@
         <v>3.199249640013477</v>
       </c>
       <c r="N3" t="n">
+        <v>3.069987028295762</v>
+      </c>
+      <c r="O3" t="n">
         <v>3.199249640013477</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.069987028295762</v>
       </c>
       <c r="P3" t="n">
         <v>3.199249640013477</v>
@@ -34918,7 +34918,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.129915453191039</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -34969,7 +34969,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.129915453191039</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M6" t="n">
         <v>3.199249640013477</v>
@@ -35027,10 +35027,10 @@
         <v>3.199249640013477</v>
       </c>
       <c r="O6" t="n">
-        <v>3.199249640013477</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="P6" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35255,16 +35255,16 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
-        <v>0.1678556611008975</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="N9" t="n">
-        <v>3.516869431124803</v>
+        <v>0.1678556611008989</v>
       </c>
       <c r="O9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>3.516869431124803</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100.9166425588722</v>
+        <v>100.9166425588723</v>
       </c>
       <c r="K11" t="n">
-        <v>1.443650664539748</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M11" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N11" t="n">
-        <v>75.8467477592105</v>
+        <v>77.2903984237503</v>
       </c>
       <c r="O11" t="n">
         <v>188.2377854165523</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L12" t="n">
         <v>118.3605178981721</v>
@@ -35504,7 +35504,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P12" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.53076257458862</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>110.7127164785115</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>80.55662968164278</v>
       </c>
       <c r="M13" t="n">
         <v>152.5011446291399</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>161.2001205282935</v>
       </c>
       <c r="O13" t="n">
-        <v>140.2485017348247</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.980516509760631</v>
+        <v>119.2611992695508</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.54545218180205</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.9166425588723</v>
+        <v>100.9166425588722</v>
       </c>
       <c r="K14" t="n">
-        <v>1.443650664539719</v>
+        <v>170.9136512231824</v>
       </c>
       <c r="L14" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M14" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N14" t="n">
-        <v>75.8467477592105</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="O14" t="n">
-        <v>188.2377854165523</v>
+        <v>156.8582750357405</v>
       </c>
       <c r="P14" t="n">
-        <v>162.526357486367</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>87.95517034880564</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L15" t="n">
         <v>118.3605178981721</v>
@@ -35741,7 +35741,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P15" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.63073752001776</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>36.13724655850348</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>38.88650555228182</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35808,22 +35808,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>30.01117749984072</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.5011446291399</v>
+        <v>152.5011446291398</v>
       </c>
       <c r="N16" t="n">
         <v>161.2001205282935</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>92.16333932039092</v>
       </c>
       <c r="P16" t="n">
-        <v>119.2611992695508</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.54545218180208</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.47877388442276</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>112.0610219210184</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M17" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N17" t="n">
-        <v>75.8467477592105</v>
+        <v>75.84674775921046</v>
       </c>
       <c r="O17" t="n">
-        <v>34.33775259513766</v>
+        <v>34.33775259513763</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.2377854165523</v>
+        <v>23.47784489275804</v>
       </c>
       <c r="R17" t="n">
         <v>102.5740853685194</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>69.99293283621888</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>75.06901807646429</v>
       </c>
       <c r="U17" t="n">
         <v>47.39018728948643</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L18" t="n">
         <v>118.3605178981721</v>
@@ -35978,7 +35978,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P18" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>56.47877388442275</v>
       </c>
       <c r="J20" t="n">
-        <v>98.54686296922233</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M20" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N20" t="n">
-        <v>75.8467477592105</v>
+        <v>75.84674775921046</v>
       </c>
       <c r="O20" t="n">
-        <v>34.33775259513766</v>
+        <v>34.33775259513763</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.2377854165523</v>
+        <v>155.2368564248875</v>
       </c>
       <c r="R20" t="n">
         <v>102.5740853685194</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9929328362189</v>
+        <v>69.99293283621888</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>75.06901807646429</v>
       </c>
       <c r="U20" t="n">
         <v>47.39018728948643</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L21" t="n">
         <v>118.3605178981721</v>
@@ -36209,13 +36209,13 @@
         <v>183.3278732149848</v>
       </c>
       <c r="N21" t="n">
-        <v>188.2377854165522</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="O21" t="n">
         <v>132.8585753742109</v>
       </c>
       <c r="P21" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,7 +36352,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>56.47877388442276</v>
+        <v>56.47877388442275</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -36361,28 +36361,28 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M23" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N23" t="n">
-        <v>75.8467477592105</v>
+        <v>75.84674775921046</v>
       </c>
       <c r="O23" t="n">
-        <v>34.33775259513766</v>
+        <v>34.33775259513763</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>69.57315637685467</v>
       </c>
       <c r="Q23" t="n">
-        <v>155.2368564248876</v>
+        <v>188.2377854165523</v>
       </c>
       <c r="R23" t="n">
-        <v>102.5740853685194</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>69.9929328362189</v>
+        <v>69.99293283621888</v>
       </c>
       <c r="T23" t="n">
         <v>75.06901807646429</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L24" t="n">
         <v>118.3605178981721</v>
@@ -36452,7 +36452,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P24" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36598,19 +36598,19 @@
         <v>206.6567638776043</v>
       </c>
       <c r="L26" t="n">
-        <v>260.5352140205722</v>
+        <v>260.5352140205721</v>
       </c>
       <c r="M26" t="n">
         <v>294.9970071740528</v>
       </c>
       <c r="N26" t="n">
-        <v>289.4032481843609</v>
+        <v>289.4032481843608</v>
       </c>
       <c r="O26" t="n">
         <v>247.894253020288</v>
       </c>
       <c r="P26" t="n">
-        <v>198.2694701407889</v>
+        <v>198.2694701407888</v>
       </c>
       <c r="Q26" t="n">
         <v>123.6982830032275</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L27" t="n">
         <v>118.3605178981721</v>
@@ -36689,7 +36689,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P27" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.27387522901051</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36768,13 +36768,13 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>145.7840235929064</v>
+        <v>42.41096734499553</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.28856483622396</v>
+        <v>86.28856483622394</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>10.09918101890034</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,13 +36829,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.6597552132941</v>
+        <v>136.6597552132942</v>
       </c>
       <c r="K29" t="n">
         <v>206.6567638776043</v>
       </c>
       <c r="L29" t="n">
-        <v>260.5352140205721</v>
+        <v>260.5352140205722</v>
       </c>
       <c r="M29" t="n">
         <v>294.9970071740528</v>
@@ -36847,13 +36847,13 @@
         <v>247.894253020288</v>
       </c>
       <c r="P29" t="n">
-        <v>198.2694701407888</v>
+        <v>198.2694701407889</v>
       </c>
       <c r="Q29" t="n">
         <v>123.6982830032275</v>
       </c>
       <c r="R29" t="n">
-        <v>18.58974849624133</v>
+        <v>18.5897484962414</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L30" t="n">
         <v>118.3605178981721</v>
@@ -36926,7 +36926,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P30" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>93.27387522901054</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>42.41096734499525</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>145.7840235929068</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.2885648362239</v>
+        <v>86.28856483622397</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.09918101890037</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,10 +37066,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>136.7419298056504</v>
+        <v>136.7419298056505</v>
       </c>
       <c r="K32" t="n">
-        <v>206.7389384699606</v>
+        <v>206.7389384699607</v>
       </c>
       <c r="L32" t="n">
         <v>260.6173886129285</v>
@@ -37081,16 +37081,16 @@
         <v>289.4854227767172</v>
       </c>
       <c r="O32" t="n">
-        <v>247.9764276126443</v>
+        <v>247.9764276126444</v>
       </c>
       <c r="P32" t="n">
-        <v>196.3544273603656</v>
+        <v>198.3516447331452</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.7804575955838</v>
+        <v>121.7832402228038</v>
       </c>
       <c r="R32" t="n">
-        <v>18.67192308859768</v>
+        <v>18.67192308859772</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L33" t="n">
         <v>118.3605178981721</v>
@@ -37163,7 +37163,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P33" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37203,16 +37203,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>16.35533557192587</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>68.45602476679596</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.96253380528168</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74.71179279906002</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>76.39920042673414</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.086486516329</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,25 +37300,25 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>29.866356488424</v>
+        <v>29.86635648842399</v>
       </c>
       <c r="J35" t="n">
         <v>194.0316746895734</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>211.8773961572236</v>
       </c>
       <c r="L35" t="n">
-        <v>258.8561097526454</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M35" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N35" t="n">
-        <v>75.8467477592105</v>
+        <v>75.84674775921046</v>
       </c>
       <c r="O35" t="n">
-        <v>34.33775259513766</v>
+        <v>34.33775259513763</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37327,10 +37327,10 @@
         <v>181.0702024795067</v>
       </c>
       <c r="R35" t="n">
-        <v>75.96166797252062</v>
+        <v>75.9616679725206</v>
       </c>
       <c r="S35" t="n">
-        <v>43.38051544022013</v>
+        <v>43.38051544022012</v>
       </c>
       <c r="T35" t="n">
         <v>48.45660068046553</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L36" t="n">
         <v>118.3605178981721</v>
@@ -37400,7 +37400,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P36" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>37.8639500493587</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37491,7 +37491,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>37.8639500493587</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>29.866356488424</v>
+        <v>29.86635648842399</v>
       </c>
       <c r="J38" t="n">
         <v>194.0316746895734</v>
       </c>
       <c r="K38" t="n">
-        <v>263.6698075140544</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>46.97871359542181</v>
+        <v>46.97871359542177</v>
       </c>
       <c r="M38" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N38" t="n">
-        <v>75.8467477592105</v>
+        <v>75.84674775921046</v>
       </c>
       <c r="O38" t="n">
-        <v>34.33775259513766</v>
+        <v>34.33775259513763</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>211.8773961572239</v>
       </c>
       <c r="Q38" t="n">
-        <v>129.2777911226758</v>
+        <v>181.0702024795067</v>
       </c>
       <c r="R38" t="n">
-        <v>75.96166797252062</v>
+        <v>75.9616679725206</v>
       </c>
       <c r="S38" t="n">
-        <v>43.38051544022013</v>
+        <v>43.38051544022012</v>
       </c>
       <c r="T38" t="n">
         <v>48.45660068046553</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L39" t="n">
         <v>118.3605178981721</v>
@@ -37637,7 +37637,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P39" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37674,19 +37674,19 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>37.8639500493587</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>164.1653182011494</v>
       </c>
       <c r="K41" t="n">
-        <v>234.1623268654596</v>
+        <v>48.42767626586129</v>
       </c>
       <c r="L41" t="n">
-        <v>102.3061264088295</v>
+        <v>288.0407770084274</v>
       </c>
       <c r="M41" t="n">
-        <v>81.44050674890246</v>
+        <v>81.44050674890242</v>
       </c>
       <c r="N41" t="n">
-        <v>75.8467477592105</v>
+        <v>316.9088111722161</v>
       </c>
       <c r="O41" t="n">
-        <v>275.3998160081433</v>
+        <v>34.33775259513763</v>
       </c>
       <c r="P41" t="n">
         <v>225.7750331286441</v>
@@ -37801,13 +37801,13 @@
         <v>151.2038459910827</v>
       </c>
       <c r="R41" t="n">
-        <v>46.09531148409661</v>
+        <v>46.09531148409663</v>
       </c>
       <c r="S41" t="n">
-        <v>13.51415895179613</v>
+        <v>13.51415895179615</v>
       </c>
       <c r="T41" t="n">
-        <v>18.59024419204153</v>
+        <v>18.59024419204156</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L42" t="n">
         <v>118.3605178981721</v>
@@ -37874,7 +37874,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P42" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37926,7 +37926,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.36068003304931</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>102.9386003384029</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -37965,7 +37965,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>17.2979052097935</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -37980,7 +37980,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>13.28001509556019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -38020,16 +38020,16 @@
         <v>234.1623268654596</v>
       </c>
       <c r="L44" t="n">
-        <v>46.97871359542181</v>
+        <v>102.306126408829</v>
       </c>
       <c r="M44" t="n">
-        <v>81.44050674890246</v>
+        <v>322.5025701619081</v>
       </c>
       <c r="N44" t="n">
-        <v>131.1741605726181</v>
+        <v>75.84674775921046</v>
       </c>
       <c r="O44" t="n">
-        <v>275.3998160081433</v>
+        <v>34.33775259513763</v>
       </c>
       <c r="P44" t="n">
         <v>225.7750331286441</v>
@@ -38038,13 +38038,13 @@
         <v>151.2038459910827</v>
       </c>
       <c r="R44" t="n">
-        <v>46.09531148409661</v>
+        <v>46.09531148409663</v>
       </c>
       <c r="S44" t="n">
-        <v>13.51415895179613</v>
+        <v>13.51415895179615</v>
       </c>
       <c r="T44" t="n">
-        <v>18.59024419204153</v>
+        <v>18.59024419204156</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.2295996312839</v>
+        <v>38.22959963128388</v>
       </c>
       <c r="L45" t="n">
         <v>118.3605178981721</v>
@@ -38111,7 +38111,7 @@
         <v>132.8585753742109</v>
       </c>
       <c r="P45" t="n">
-        <v>84.33122304346762</v>
+        <v>84.3312230434676</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38178,7 +38178,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>102.938600338403</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>48.0359511218538</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>37.6047440067556</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.29790520979353</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
